--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Study Name</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Pixel-siz-mm/p</t>
   </si>
   <si>
-    <t>mm/p</t>
-  </si>
-  <si>
     <t>ROI-length-mm</t>
   </si>
   <si>
@@ -242,7 +239,28 @@
     <t>Frame</t>
   </si>
   <si>
-    <t>Pixel Diameter</t>
+    <t>AVG Pixel Diameter</t>
+  </si>
+  <si>
+    <t>BDIAMM</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>STYPE</t>
+  </si>
+  <si>
+    <t>SDATE</t>
+  </si>
+  <si>
+    <t>STIME</t>
+  </si>
+  <si>
+    <t>MSEC</t>
+  </si>
+  <si>
+    <t>COND</t>
   </si>
 </sst>
 </file>
@@ -308,6 +326,522 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baseline Test Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data - 123456789 bsl'!$H$2:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data - 123456789 bsl'!$B$2:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.37809218763662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.75447597118858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.86596444558292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.77067467169414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.32861012297636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.17263638789651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.62047453353023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.80186061288828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.1168750314678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.23211193523181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.18010957114192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.10757948972721</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.08392740990866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.14567525699958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.1028518878085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.9924576483292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.00425740433433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.45339043718502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.69881576208547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.65253704067186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.63571513688805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.60788832767959</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.47640249349195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.28760991527536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.92145627821908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.30855878163534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.59270873725703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.68925123200624</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.5941353818298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.49000530654262</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.42649294350104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.2617118179304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.11673614185651</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.01119243882869</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.34851821951401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.83363151347939</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.53560547555191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.67062917156793</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.34139365264331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.17309016702146</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.1786387102793</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.35103130928262</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.77425934140766</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.80071594653138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.15473112963728</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.50400903098043</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.46327461790699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.61209669111286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.86391900329808</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.25205320169832</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.86163025262231</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.07232443926549</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.76217726816773</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.44278691163136</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.84651132417257</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.76194509308932</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.23176934232991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.40217024278832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Diameter (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,23 +1426,23 @@
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
+      <c r="B20" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>60</v>
@@ -916,52 +1450,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -980,12 +1514,13 @@
     <row r="60" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,487 +1529,685 @@
     <col min="1" max="29" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>24.43969436047382</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>35.37809218763662</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>35.75447597118858</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>35.86596444558292</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="H5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>35.77067467169414</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="H6" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>24.32861012297636</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="H7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>24.17263638789651</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="H8" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>23.62047453353023</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="H9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>23.80186061288828</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="H10" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>24.1168750314678</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="H11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>24.23211193523181</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>24.18010957114192</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="H13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>24.10757948972721</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="H14" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>24.08392740990866</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="H15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>24.14567525699958</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="H16" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>24.1028518878085</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="H17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>23.9924576483292</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="H18" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>24.00425740433433</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="H19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>24.45339043718502</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>24.69881576208547</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="H21">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>24.65253704067186</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>24.63571513688805</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="H23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>24.60788832767959</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="H24" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>24.47640249349195</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="H25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>24.28760991527536</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="H26" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>23.92145627821908</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="H27">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>24.30855878163534</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="H28" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>24.59270873725703</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="H29">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>24.68925123200624</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="H30" s="2">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>24.5941353818298</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1">
+      <c r="H31">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>24.49000530654262</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="H32" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>24.42649294350104</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1">
+      <c r="H33">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>24.2617118179304</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="H34" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>24.11673614185651</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="2" customFormat="1">
+      <c r="H35">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>24.01119243882869</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="H36" s="2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>24.34851821951401</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" s="2" customFormat="1">
+      <c r="H37">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>24.83363151347939</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="H38" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>36.53560547555191</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" s="2" customFormat="1">
+      <c r="H39">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>42.67062917156793</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="H40" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>42.34139365264331</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1">
+      <c r="H41">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>42.17309016702146</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="H42" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>42.1786387102793</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" s="2" customFormat="1">
+      <c r="H43">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>34.35103130928262</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="H44" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>33.77425934140766</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" s="2" customFormat="1">
+      <c r="H45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>33.80071594653138</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="H46" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>33.15473112963728</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" s="2" customFormat="1">
+      <c r="H47">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>33.50400903098043</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="H48" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>32.46327461790699</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1">
+      <c r="H49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>28.61209669111286</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="H50" s="2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>32.86391900329808</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1">
+      <c r="H51">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>32.25205320169832</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="H52" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>32.86163025262231</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1">
+      <c r="H53">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>29.07232443926549</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="H54" s="2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>29.76217726816773</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1">
+      <c r="H55">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>29.44278691163136</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="H56" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>29.84651132417257</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" s="2" customFormat="1">
+      <c r="H57">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>29.76194509308932</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="H58" s="2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>34.23176934232991</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1">
+      <c r="H59">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>34.40217024278832</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="H60" s="2">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="B61">
         <v>29.95937605115229</v>
       </c>
@@ -1628,23 +2361,23 @@
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
+      <c r="B20" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>60</v>
@@ -1652,52 +2385,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary - 123456789 bsl" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - 123456789 bsl" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 12345bsl" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - 12345bsl" sheetId="3" r:id="rId3"/>
     <sheet name="Summary - 123456789 rh1" sheetId="4" r:id="rId4"/>
     <sheet name="Data - 123456789 rh1" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
     <t>Study Name</t>
   </si>
   <si>
-    <t>123456789 bsl</t>
+    <t>12345bsl</t>
   </si>
   <si>
     <t>123456789 rh1</t>
@@ -359,7 +359,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 123456789 bsl'!$H$2:$H$60</c:f>
+              <c:f>'Data - 12345bsl'!$H$2:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
@@ -545,7 +545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 123456789 bsl'!$B$2:$B$60</c:f>
+              <c:f>'Data - 12345bsl'!$B$2:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,25 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary - 12345bsl" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - 12345bsl" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary - 123456789 rh1" sheetId="4" r:id="rId4"/>
-    <sheet name="Data - 123456789 rh1" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary -  - base" sheetId="2" r:id="rId2"/>
+    <sheet name="Data -  - base" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary -  - test1" sheetId="4" r:id="rId4"/>
+    <sheet name="Data -  - test1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Study Name</t>
-  </si>
-  <si>
-    <t>12345bsl</t>
-  </si>
-  <si>
-    <t>123456789 rh1</t>
   </si>
   <si>
     <t>First Name</t>
@@ -359,10 +353,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 12345bsl'!$H$2:$H$60</c:f>
+              <c:f>'Data -  - base'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -539,191 +533,197 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 12345bsl'!$B$2:$B$60</c:f>
+              <c:f>'Data -  - base'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>24.43969436047382</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35.37809218763662</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35.75447597118858</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>35.86596444558292</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>35.77067467169414</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24.32861012297636</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24.17263638789651</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23.62047453353023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>23.80186061288828</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>24.1168750314678</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>24.23211193523181</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>24.18010957114192</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>24.10757948972721</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>24.08392740990866</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>24.14567525699958</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>24.1028518878085</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>23.9924576483292</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>24.00425740433433</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>24.45339043718502</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>24.69881576208547</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24.65253704067186</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>24.63571513688805</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>24.60788832767959</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24.47640249349195</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>24.28760991527536</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>23.92145627821908</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>24.30855878163534</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>24.59270873725703</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>24.68925123200624</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>24.5941353818298</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>24.49000530654262</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>24.42649294350104</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>24.2617118179304</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>24.11673614185651</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>24.01119243882869</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>24.34851821951401</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>24.83363151347939</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>36.53560547555191</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>42.67062917156793</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>42.34139365264331</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>42.17309016702146</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42.1786387102793</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>34.35103130928262</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>33.77425934140766</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>33.80071594653138</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>33.15473112963728</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>33.50400903098043</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>32.46327461790699</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>28.61209669111286</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>32.86391900329808</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>32.25205320169832</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>32.86163025262231</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>29.07232443926549</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>29.76217726816773</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>29.44278691163136</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>29.84651132417257</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>29.76194509308932</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>34.23176934232991</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>34.40217024278832</c:v>
                 </c:pt>
               </c:numCache>
@@ -809,7 +809,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baseline Test Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data -  - test1'!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data -  - test1'!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.37809218763662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.75447597118858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.86596444558292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.77067467169414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.32861012297636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.17263638789651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.62047453353023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.80186061288828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1168750314678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.23211193523181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.18010957114192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.10757948972721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.08392740990866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.14567525699958</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.1028518878085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.9924576483292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.00425740433433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.45339043718502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.69881576208547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.65253704067186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.63571513688805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.60788832767959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.47640249349195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.28760991527536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.92145627821908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.30855878163534</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.59270873725703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.68925123200624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.5941353818298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.49000530654262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.42649294350104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.2617118179304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.11673614185651</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.01119243882869</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.34851821951401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.83363151347939</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.53560547555191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.67062917156793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.34139365264331</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.17309016702146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.1786387102793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.35103130928262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.77425934140766</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.80071594653138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.15473112963728</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.50400903098043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.46327461790699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.61209669111286</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.86391900329808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.25205320169832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.86163025262231</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.07232443926549</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.76217726816773</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.44278691163136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.84651132417257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.76194509308932</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.23176934232991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.40217024278832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Diameter (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1143,101 +1665,95 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
       <c r="J3">
         <v>500</v>
@@ -1248,33 +1764,33 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1296,135 +1812,135 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
@@ -1432,70 +1948,70 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
         <v>61</v>
-      </c>
-      <c r="B23">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -1520,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,31 +2047,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -1574,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35.37809218763662</v>
+        <v>24.43969436047382</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -1585,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>35.75447597118858</v>
+        <v>35.37809218763662</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -1596,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35.86596444558292</v>
+        <v>35.75447597118858</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -1607,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>35.77067467169414</v>
+        <v>35.86596444558292</v>
       </c>
       <c r="H6" s="2">
         <v>400</v>
@@ -1618,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24.32861012297636</v>
+        <v>35.77067467169414</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -1629,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>24.17263638789651</v>
+        <v>24.32861012297636</v>
       </c>
       <c r="H8" s="2">
         <v>600</v>
@@ -1640,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>23.62047453353023</v>
+        <v>24.17263638789651</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -1651,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23.80186061288828</v>
+        <v>23.62047453353023</v>
       </c>
       <c r="H10" s="2">
         <v>800</v>
@@ -1662,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24.1168750314678</v>
+        <v>23.80186061288828</v>
       </c>
       <c r="H11">
         <v>900</v>
@@ -1673,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>24.23211193523181</v>
+        <v>24.1168750314678</v>
       </c>
       <c r="H12" s="2">
         <v>1000</v>
@@ -1684,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24.18010957114192</v>
+        <v>24.23211193523181</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -1695,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>24.10757948972721</v>
+        <v>24.18010957114192</v>
       </c>
       <c r="H14" s="2">
         <v>1200</v>
@@ -1706,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>24.08392740990866</v>
+        <v>24.10757948972721</v>
       </c>
       <c r="H15">
         <v>1300</v>
@@ -1717,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>24.14567525699958</v>
+        <v>24.08392740990866</v>
       </c>
       <c r="H16" s="2">
         <v>1400</v>
@@ -1728,7 +2244,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>24.1028518878085</v>
+        <v>24.14567525699958</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -1739,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>23.9924576483292</v>
+        <v>24.1028518878085</v>
       </c>
       <c r="H18" s="2">
         <v>1600</v>
@@ -1750,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>24.00425740433433</v>
+        <v>23.9924576483292</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -1761,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>24.45339043718502</v>
+        <v>24.00425740433433</v>
       </c>
       <c r="H20" s="2">
         <v>1800</v>
@@ -1772,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>24.69881576208547</v>
+        <v>24.45339043718502</v>
       </c>
       <c r="H21">
         <v>1900</v>
@@ -1783,7 +2299,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>24.65253704067186</v>
+        <v>24.69881576208547</v>
       </c>
       <c r="H22" s="2">
         <v>2000</v>
@@ -1794,7 +2310,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24.63571513688805</v>
+        <v>24.65253704067186</v>
       </c>
       <c r="H23">
         <v>2100</v>
@@ -1805,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>24.60788832767959</v>
+        <v>24.63571513688805</v>
       </c>
       <c r="H24" s="2">
         <v>2200</v>
@@ -1816,7 +2332,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24.47640249349195</v>
+        <v>24.60788832767959</v>
       </c>
       <c r="H25">
         <v>2300</v>
@@ -1827,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>24.28760991527536</v>
+        <v>24.47640249349195</v>
       </c>
       <c r="H26" s="2">
         <v>2400</v>
@@ -1838,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>23.92145627821908</v>
+        <v>24.28760991527536</v>
       </c>
       <c r="H27">
         <v>2500</v>
@@ -1849,7 +2365,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>24.30855878163534</v>
+        <v>23.92145627821908</v>
       </c>
       <c r="H28" s="2">
         <v>2600</v>
@@ -1860,7 +2376,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24.59270873725703</v>
+        <v>24.30855878163534</v>
       </c>
       <c r="H29">
         <v>2700</v>
@@ -1871,7 +2387,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>24.68925123200624</v>
+        <v>24.59270873725703</v>
       </c>
       <c r="H30" s="2">
         <v>2800</v>
@@ -1882,7 +2398,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>24.5941353818298</v>
+        <v>24.68925123200624</v>
       </c>
       <c r="H31">
         <v>2900</v>
@@ -1893,7 +2409,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>24.49000530654262</v>
+        <v>24.5941353818298</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
@@ -1904,7 +2420,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>24.42649294350104</v>
+        <v>24.49000530654262</v>
       </c>
       <c r="H33">
         <v>3100</v>
@@ -1915,7 +2431,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>24.2617118179304</v>
+        <v>24.42649294350104</v>
       </c>
       <c r="H34" s="2">
         <v>3200</v>
@@ -1926,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>24.11673614185651</v>
+        <v>24.2617118179304</v>
       </c>
       <c r="H35">
         <v>3300</v>
@@ -1937,7 +2453,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>24.01119243882869</v>
+        <v>24.11673614185651</v>
       </c>
       <c r="H36" s="2">
         <v>3400</v>
@@ -1948,7 +2464,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>24.34851821951401</v>
+        <v>24.01119243882869</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -1959,7 +2475,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>24.83363151347939</v>
+        <v>24.34851821951401</v>
       </c>
       <c r="H38" s="2">
         <v>3600</v>
@@ -1970,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>36.53560547555191</v>
+        <v>24.83363151347939</v>
       </c>
       <c r="H39">
         <v>3700</v>
@@ -1981,7 +2497,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>42.67062917156793</v>
+        <v>36.53560547555191</v>
       </c>
       <c r="H40" s="2">
         <v>3800</v>
@@ -1992,7 +2508,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>42.34139365264331</v>
+        <v>42.67062917156793</v>
       </c>
       <c r="H41">
         <v>3900</v>
@@ -2003,7 +2519,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42.17309016702146</v>
+        <v>42.34139365264331</v>
       </c>
       <c r="H42" s="2">
         <v>4000</v>
@@ -2014,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>42.1786387102793</v>
+        <v>42.17309016702146</v>
       </c>
       <c r="H43">
         <v>4100</v>
@@ -2025,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>34.35103130928262</v>
+        <v>42.1786387102793</v>
       </c>
       <c r="H44" s="2">
         <v>4200</v>
@@ -2036,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>33.77425934140766</v>
+        <v>34.35103130928262</v>
       </c>
       <c r="H45">
         <v>4300</v>
@@ -2047,7 +2563,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>33.80071594653138</v>
+        <v>33.77425934140766</v>
       </c>
       <c r="H46" s="2">
         <v>4400</v>
@@ -2058,7 +2574,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>33.15473112963728</v>
+        <v>33.80071594653138</v>
       </c>
       <c r="H47">
         <v>4500</v>
@@ -2069,7 +2585,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>33.50400903098043</v>
+        <v>33.15473112963728</v>
       </c>
       <c r="H48" s="2">
         <v>4600</v>
@@ -2080,7 +2596,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>32.46327461790699</v>
+        <v>33.50400903098043</v>
       </c>
       <c r="H49">
         <v>4700</v>
@@ -2091,7 +2607,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>28.61209669111286</v>
+        <v>32.46327461790699</v>
       </c>
       <c r="H50" s="2">
         <v>4800</v>
@@ -2102,7 +2618,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>32.86391900329808</v>
+        <v>28.61209669111286</v>
       </c>
       <c r="H51">
         <v>4900</v>
@@ -2113,7 +2629,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>32.25205320169832</v>
+        <v>32.86391900329808</v>
       </c>
       <c r="H52" s="2">
         <v>5000</v>
@@ -2124,7 +2640,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>32.86163025262231</v>
+        <v>32.25205320169832</v>
       </c>
       <c r="H53">
         <v>5100</v>
@@ -2135,7 +2651,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>29.07232443926549</v>
+        <v>32.86163025262231</v>
       </c>
       <c r="H54" s="2">
         <v>5200</v>
@@ -2146,7 +2662,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>29.76217726816773</v>
+        <v>29.07232443926549</v>
       </c>
       <c r="H55">
         <v>5300</v>
@@ -2157,7 +2673,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>29.44278691163136</v>
+        <v>29.76217726816773</v>
       </c>
       <c r="H56" s="2">
         <v>5400</v>
@@ -2168,7 +2684,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>29.84651132417257</v>
+        <v>29.44278691163136</v>
       </c>
       <c r="H57">
         <v>5500</v>
@@ -2179,7 +2695,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>29.76194509308932</v>
+        <v>29.84651132417257</v>
       </c>
       <c r="H58" s="2">
         <v>5600</v>
@@ -2190,7 +2706,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>34.23176934232991</v>
+        <v>29.76194509308932</v>
       </c>
       <c r="H59">
         <v>5700</v>
@@ -2201,14 +2717,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>34.40217024278832</v>
+        <v>34.23176934232991</v>
       </c>
       <c r="H60" s="2">
         <v>5800</v>
       </c>
     </row>
     <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61">
+        <v>34.40217024278832</v>
+      </c>
+      <c r="H61">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62">
         <v>29.95937605115229</v>
       </c>
     </row>
@@ -2219,7 +2746,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2231,135 +2758,135 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
@@ -2367,70 +2894,70 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
         <v>61</v>
-      </c>
-      <c r="B23">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -2439,19 +2966,726 @@
     <row r="40" spans="1:1" s="2" customFormat="1"/>
     <row r="42" spans="1:1" s="2" customFormat="1"/>
     <row r="44" spans="1:1" s="2" customFormat="1"/>
+    <row r="46" spans="1:1" s="2" customFormat="1"/>
+    <row r="48" spans="1:1" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="29" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24.43969436047382</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24.43969436047382</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35.37809218763662</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>35.75447597118858</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.86596444558292</v>
+      </c>
+      <c r="H6" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35.77067467169414</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24.32861012297636</v>
+      </c>
+      <c r="H8" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24.17263638789651</v>
+      </c>
+      <c r="H9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="H10" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23.80186061288828</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24.1168750314678</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24.23211193523181</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.18010957114192</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24.10757948972721</v>
+      </c>
+      <c r="H15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24.08392740990866</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>24.14567525699958</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>24.1028518878085</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23.9924576483292</v>
+      </c>
+      <c r="H19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.00425740433433</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>24.45339043718502</v>
+      </c>
+      <c r="H21">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>24.69881576208547</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>24.65253704067186</v>
+      </c>
+      <c r="H23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>24.63571513688805</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24.60788832767959</v>
+      </c>
+      <c r="H25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24.47640249349195</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>24.28760991527536</v>
+      </c>
+      <c r="H27">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>23.92145627821908</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>24.30855878163534</v>
+      </c>
+      <c r="H29">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24.59270873725703</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>24.68925123200624</v>
+      </c>
+      <c r="H31">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24.5941353818298</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>24.49000530654262</v>
+      </c>
+      <c r="H33">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>24.42649294350104</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24.2617118179304</v>
+      </c>
+      <c r="H35">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>24.11673614185651</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>24.01119243882869</v>
+      </c>
+      <c r="H37">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>24.34851821951401</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>24.83363151347939</v>
+      </c>
+      <c r="H39">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.53560547555191</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>42.67062917156793</v>
+      </c>
+      <c r="H41">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42.34139365264331</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42.17309016702146</v>
+      </c>
+      <c r="H43">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42.1786387102793</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>34.35103130928262</v>
+      </c>
+      <c r="H45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33.77425934140766</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>33.80071594653138</v>
+      </c>
+      <c r="H47">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.15473112963728</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>33.50400903098043</v>
+      </c>
+      <c r="H49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>32.46327461790699</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28.61209669111286</v>
+      </c>
+      <c r="H51">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32.86391900329808</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>32.25205320169832</v>
+      </c>
+      <c r="H53">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32.86163025262231</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>29.07232443926549</v>
+      </c>
+      <c r="H55">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>29.76217726816773</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>29.44278691163136</v>
+      </c>
+      <c r="H57">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>29.84651132417257</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>29.76194509308932</v>
+      </c>
+      <c r="H59">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>34.23176934232991</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>34.40217024278832</v>
+      </c>
+      <c r="H61">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62">
+        <v>29.95937605115229</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,25 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary -  - base" sheetId="2" r:id="rId2"/>
-    <sheet name="Data -  - base" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary -  - test1" sheetId="4" r:id="rId4"/>
-    <sheet name="Data -  - test1" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary - 123 - base" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - 123 - base" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 123 - rh1" sheetId="4" r:id="rId4"/>
+    <sheet name="Data - 123 - rh1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>Study Name</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Jane Doe</t>
+    <t>John</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -353,7 +356,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data -  - base'!$H$2:$H$61</c:f>
+              <c:f>'Data - 123 - base'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -542,7 +545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data -  - base'!$B$2:$B$61</c:f>
+              <c:f>'Data - 123 - base'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -550,181 +553,181 @@
                   <c:v>24.43969436047382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.43969436047382</c:v>
+                  <c:v>131.1173184357542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.37809218763662</c:v>
+                  <c:v>131.0879888268156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.75447597118858</c:v>
+                  <c:v>130.8743239886447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.86596444558292</c:v>
+                  <c:v>131.0265586514706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.77067467169414</c:v>
+                  <c:v>130.5000222488526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.32861012297636</c:v>
+                  <c:v>129.8435975559337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.17263638789651</c:v>
+                  <c:v>130.3547708274408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62047453353023</c:v>
+                  <c:v>130.4483462623888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.80186061288828</c:v>
+                  <c:v>130.4790725246106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.1168750314678</c:v>
+                  <c:v>130.4860335195531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.23211193523181</c:v>
+                  <c:v>130.572625698324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.18010957114192</c:v>
+                  <c:v>130.4176200001671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.10757948972721</c:v>
+                  <c:v>130.1341003987574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.08392740990866</c:v>
+                  <c:v>130.3282345100675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.14567525699958</c:v>
+                  <c:v>129.7807483832074</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.1028518878085</c:v>
+                  <c:v>129.5656645476552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.9924576483292</c:v>
+                  <c:v>130.0558880949202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.00425740433433</c:v>
+                  <c:v>130.2360557234023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.45339043718502</c:v>
+                  <c:v>132.0586817324645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.69881576208547</c:v>
+                  <c:v>132.0335420633739</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.65253704067186</c:v>
+                  <c:v>27.08535336043821</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.63571513688805</c:v>
+                  <c:v>27.02653631284916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.60788832767959</c:v>
+                  <c:v>27.2108938547486</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.47640249349195</c:v>
+                  <c:v>26.88268156424581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.28760991527536</c:v>
+                  <c:v>26.8072625698324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.92145627821908</c:v>
+                  <c:v>26.8086592178771</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.30855878163534</c:v>
+                  <c:v>26.71229050279329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.59270873725703</c:v>
+                  <c:v>146.8282122905028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.68925123200624</c:v>
+                  <c:v>131.3980446927374</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.5941353818298</c:v>
+                  <c:v>130.4748603351955</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.49000530654262</c:v>
+                  <c:v>145.7960893854749</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.42649294350104</c:v>
+                  <c:v>145.9664804469274</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24.2617118179304</c:v>
+                  <c:v>131.2094972067039</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.11673614185651</c:v>
+                  <c:v>131.4874301675978</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24.01119243882869</c:v>
+                  <c:v>131.0405027932961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.34851821951401</c:v>
+                  <c:v>130.7332402234637</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.83363151347939</c:v>
+                  <c:v>27.07821229050279</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.53560547555191</c:v>
+                  <c:v>26.98491116892318</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.67062917156793</c:v>
+                  <c:v>27.02094972067039</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.34139365264331</c:v>
+                  <c:v>26.96508379888268</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.17309016702146</c:v>
+                  <c:v>131.0838212310657</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.1786387102793</c:v>
+                  <c:v>27.08519553072626</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.35103130928262</c:v>
+                  <c:v>130.768156424581</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33.77425934140766</c:v>
+                  <c:v>26.83100558659218</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.80071594653138</c:v>
+                  <c:v>26.79507790592713</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.15473112963728</c:v>
+                  <c:v>26.71493368856704</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33.50400903098043</c:v>
+                  <c:v>26.53076974210314</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32.46327461790699</c:v>
+                  <c:v>26.75049244619943</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.61209669111286</c:v>
+                  <c:v>26.81485470576171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.86391900329808</c:v>
+                  <c:v>26.9311039349027</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.25205320169832</c:v>
+                  <c:v>26.91532668425958</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.86163025262231</c:v>
+                  <c:v>26.90689104938104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29.07232443926549</c:v>
+                  <c:v>26.86244186439886</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29.76217726816773</c:v>
+                  <c:v>26.74581005586592</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>29.44278691163136</c:v>
+                  <c:v>26.74581005586592</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.84651132417257</c:v>
+                  <c:v>26.62514114121512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>29.76194509308932</c:v>
+                  <c:v>41.37533619557046</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>34.23176934232991</c:v>
+                  <c:v>41.29426248149818</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34.40217024278832</c:v>
+                  <c:v>26.83938547486034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +843,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data -  - test1'!$H$2:$H$61</c:f>
+              <c:f>'Data - 123 - rh1'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1029,7 +1032,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data -  - test1'!$B$2:$B$61</c:f>
+              <c:f>'Data - 123 - rh1'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1037,181 +1040,181 @@
                   <c:v>24.43969436047382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.43969436047382</c:v>
+                  <c:v>131.1173184357542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.37809218763662</c:v>
+                  <c:v>131.0879888268156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.75447597118858</c:v>
+                  <c:v>130.8743239886447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.86596444558292</c:v>
+                  <c:v>131.0265586514706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.77067467169414</c:v>
+                  <c:v>130.5000222488526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.32861012297636</c:v>
+                  <c:v>129.8435975559337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.17263638789651</c:v>
+                  <c:v>130.3547708274408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.62047453353023</c:v>
+                  <c:v>130.4483462623888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.80186061288828</c:v>
+                  <c:v>130.4790725246106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.1168750314678</c:v>
+                  <c:v>130.4860335195531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.23211193523181</c:v>
+                  <c:v>130.572625698324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.18010957114192</c:v>
+                  <c:v>130.4176200001671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.10757948972721</c:v>
+                  <c:v>130.1341003987574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.08392740990866</c:v>
+                  <c:v>130.3282345100675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.14567525699958</c:v>
+                  <c:v>129.7807483832074</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.1028518878085</c:v>
+                  <c:v>129.5656645476552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.9924576483292</c:v>
+                  <c:v>130.0558880949202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.00425740433433</c:v>
+                  <c:v>130.2360557234023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.45339043718502</c:v>
+                  <c:v>132.0586817324645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.69881576208547</c:v>
+                  <c:v>132.0335420633739</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.65253704067186</c:v>
+                  <c:v>27.08535336043821</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.63571513688805</c:v>
+                  <c:v>27.02653631284916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.60788832767959</c:v>
+                  <c:v>27.2108938547486</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.47640249349195</c:v>
+                  <c:v>26.88268156424581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.28760991527536</c:v>
+                  <c:v>26.8072625698324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.92145627821908</c:v>
+                  <c:v>26.8086592178771</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.30855878163534</c:v>
+                  <c:v>26.71229050279329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.59270873725703</c:v>
+                  <c:v>146.8282122905028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.68925123200624</c:v>
+                  <c:v>131.3980446927374</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.5941353818298</c:v>
+                  <c:v>130.4748603351955</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.49000530654262</c:v>
+                  <c:v>145.7960893854749</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.42649294350104</c:v>
+                  <c:v>145.9664804469274</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24.2617118179304</c:v>
+                  <c:v>131.2094972067039</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.11673614185651</c:v>
+                  <c:v>131.4874301675978</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24.01119243882869</c:v>
+                  <c:v>131.0405027932961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.34851821951401</c:v>
+                  <c:v>130.7332402234637</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.83363151347939</c:v>
+                  <c:v>27.07821229050279</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.53560547555191</c:v>
+                  <c:v>26.98491116892318</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.67062917156793</c:v>
+                  <c:v>27.02094972067039</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.34139365264331</c:v>
+                  <c:v>26.96508379888268</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.17309016702146</c:v>
+                  <c:v>131.0838212310657</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.1786387102793</c:v>
+                  <c:v>27.08519553072626</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.35103130928262</c:v>
+                  <c:v>130.768156424581</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33.77425934140766</c:v>
+                  <c:v>26.83100558659218</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.80071594653138</c:v>
+                  <c:v>26.79507790592713</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.15473112963728</c:v>
+                  <c:v>26.71493368856704</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33.50400903098043</c:v>
+                  <c:v>26.53076974210314</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32.46327461790699</c:v>
+                  <c:v>26.75049244619943</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.61209669111286</c:v>
+                  <c:v>26.81485470576171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.86391900329808</c:v>
+                  <c:v>26.9311039349027</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.25205320169832</c:v>
+                  <c:v>26.91532668425958</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.86163025262231</c:v>
+                  <c:v>26.90689104938104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29.07232443926549</c:v>
+                  <c:v>26.86244186439886</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29.76217726816773</c:v>
+                  <c:v>26.74581005586592</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>29.44278691163136</c:v>
+                  <c:v>26.74581005586592</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.84651132417257</c:v>
+                  <c:v>26.62514114121512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>29.76194509308932</c:v>
+                  <c:v>41.37533619557046</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>34.23176934232991</c:v>
+                  <c:v>41.29426248149818</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34.40217024278832</c:v>
+                  <c:v>26.83938547486034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,84 +1668,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2">
         <v>61</v>
@@ -1752,8 +1758,11 @@
       </c>
     </row>
     <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>500</v>
@@ -1764,33 +1773,33 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1812,135 +1821,135 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
@@ -1948,17 +1957,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -1966,52 +1975,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -2047,31 +2056,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -2090,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24.43969436047382</v>
+        <v>131.1173184357542</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2101,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>35.37809218763662</v>
+        <v>131.0879888268156</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -2112,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35.75447597118858</v>
+        <v>130.8743239886447</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -2123,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>35.86596444558292</v>
+        <v>131.0265586514706</v>
       </c>
       <c r="H6" s="2">
         <v>400</v>
@@ -2134,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>35.77067467169414</v>
+        <v>130.5000222488526</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -2145,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>24.32861012297636</v>
+        <v>129.8435975559337</v>
       </c>
       <c r="H8" s="2">
         <v>600</v>
@@ -2156,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24.17263638789651</v>
+        <v>130.3547708274408</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -2167,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23.62047453353023</v>
+        <v>130.4483462623888</v>
       </c>
       <c r="H10" s="2">
         <v>800</v>
@@ -2178,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23.80186061288828</v>
+        <v>130.4790725246106</v>
       </c>
       <c r="H11">
         <v>900</v>
@@ -2189,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>24.1168750314678</v>
+        <v>130.4860335195531</v>
       </c>
       <c r="H12" s="2">
         <v>1000</v>
@@ -2200,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24.23211193523181</v>
+        <v>130.572625698324</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -2211,7 +2220,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>24.18010957114192</v>
+        <v>130.4176200001671</v>
       </c>
       <c r="H14" s="2">
         <v>1200</v>
@@ -2222,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>24.10757948972721</v>
+        <v>130.1341003987574</v>
       </c>
       <c r="H15">
         <v>1300</v>
@@ -2233,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>24.08392740990866</v>
+        <v>130.3282345100675</v>
       </c>
       <c r="H16" s="2">
         <v>1400</v>
@@ -2244,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>24.14567525699958</v>
+        <v>129.7807483832074</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -2255,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>24.1028518878085</v>
+        <v>129.5656645476552</v>
       </c>
       <c r="H18" s="2">
         <v>1600</v>
@@ -2266,7 +2275,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>23.9924576483292</v>
+        <v>130.0558880949202</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -2277,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>24.00425740433433</v>
+        <v>130.2360557234023</v>
       </c>
       <c r="H20" s="2">
         <v>1800</v>
@@ -2288,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>24.45339043718502</v>
+        <v>132.0586817324645</v>
       </c>
       <c r="H21">
         <v>1900</v>
@@ -2299,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>24.69881576208547</v>
+        <v>132.0335420633739</v>
       </c>
       <c r="H22" s="2">
         <v>2000</v>
@@ -2310,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24.65253704067186</v>
+        <v>27.08535336043821</v>
       </c>
       <c r="H23">
         <v>2100</v>
@@ -2321,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>24.63571513688805</v>
+        <v>27.02653631284916</v>
       </c>
       <c r="H24" s="2">
         <v>2200</v>
@@ -2332,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24.60788832767959</v>
+        <v>27.2108938547486</v>
       </c>
       <c r="H25">
         <v>2300</v>
@@ -2343,7 +2352,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>24.47640249349195</v>
+        <v>26.88268156424581</v>
       </c>
       <c r="H26" s="2">
         <v>2400</v>
@@ -2354,7 +2363,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>24.28760991527536</v>
+        <v>26.8072625698324</v>
       </c>
       <c r="H27">
         <v>2500</v>
@@ -2365,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>23.92145627821908</v>
+        <v>26.8086592178771</v>
       </c>
       <c r="H28" s="2">
         <v>2600</v>
@@ -2376,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24.30855878163534</v>
+        <v>26.71229050279329</v>
       </c>
       <c r="H29">
         <v>2700</v>
@@ -2387,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>24.59270873725703</v>
+        <v>146.8282122905028</v>
       </c>
       <c r="H30" s="2">
         <v>2800</v>
@@ -2398,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>24.68925123200624</v>
+        <v>131.3980446927374</v>
       </c>
       <c r="H31">
         <v>2900</v>
@@ -2409,7 +2418,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>24.5941353818298</v>
+        <v>130.4748603351955</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
@@ -2420,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>24.49000530654262</v>
+        <v>145.7960893854749</v>
       </c>
       <c r="H33">
         <v>3100</v>
@@ -2431,7 +2440,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>24.42649294350104</v>
+        <v>145.9664804469274</v>
       </c>
       <c r="H34" s="2">
         <v>3200</v>
@@ -2442,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>24.2617118179304</v>
+        <v>131.2094972067039</v>
       </c>
       <c r="H35">
         <v>3300</v>
@@ -2453,7 +2462,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>24.11673614185651</v>
+        <v>131.4874301675978</v>
       </c>
       <c r="H36" s="2">
         <v>3400</v>
@@ -2464,7 +2473,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>24.01119243882869</v>
+        <v>131.0405027932961</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -2475,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>24.34851821951401</v>
+        <v>130.7332402234637</v>
       </c>
       <c r="H38" s="2">
         <v>3600</v>
@@ -2486,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>24.83363151347939</v>
+        <v>27.07821229050279</v>
       </c>
       <c r="H39">
         <v>3700</v>
@@ -2497,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>36.53560547555191</v>
+        <v>26.98491116892318</v>
       </c>
       <c r="H40" s="2">
         <v>3800</v>
@@ -2508,7 +2517,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>42.67062917156793</v>
+        <v>27.02094972067039</v>
       </c>
       <c r="H41">
         <v>3900</v>
@@ -2519,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42.34139365264331</v>
+        <v>26.96508379888268</v>
       </c>
       <c r="H42" s="2">
         <v>4000</v>
@@ -2530,7 +2539,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>42.17309016702146</v>
+        <v>131.0838212310657</v>
       </c>
       <c r="H43">
         <v>4100</v>
@@ -2541,7 +2550,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>42.1786387102793</v>
+        <v>27.08519553072626</v>
       </c>
       <c r="H44" s="2">
         <v>4200</v>
@@ -2552,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>34.35103130928262</v>
+        <v>130.768156424581</v>
       </c>
       <c r="H45">
         <v>4300</v>
@@ -2563,7 +2572,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>33.77425934140766</v>
+        <v>26.83100558659218</v>
       </c>
       <c r="H46" s="2">
         <v>4400</v>
@@ -2574,7 +2583,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>33.80071594653138</v>
+        <v>26.79507790592713</v>
       </c>
       <c r="H47">
         <v>4500</v>
@@ -2585,7 +2594,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>33.15473112963728</v>
+        <v>26.71493368856704</v>
       </c>
       <c r="H48" s="2">
         <v>4600</v>
@@ -2596,7 +2605,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>33.50400903098043</v>
+        <v>26.53076974210314</v>
       </c>
       <c r="H49">
         <v>4700</v>
@@ -2607,7 +2616,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>32.46327461790699</v>
+        <v>26.75049244619943</v>
       </c>
       <c r="H50" s="2">
         <v>4800</v>
@@ -2618,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>28.61209669111286</v>
+        <v>26.81485470576171</v>
       </c>
       <c r="H51">
         <v>4900</v>
@@ -2629,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>32.86391900329808</v>
+        <v>26.9311039349027</v>
       </c>
       <c r="H52" s="2">
         <v>5000</v>
@@ -2640,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>32.25205320169832</v>
+        <v>26.91532668425958</v>
       </c>
       <c r="H53">
         <v>5100</v>
@@ -2651,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>32.86163025262231</v>
+        <v>26.90689104938104</v>
       </c>
       <c r="H54" s="2">
         <v>5200</v>
@@ -2662,7 +2671,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>29.07232443926549</v>
+        <v>26.86244186439886</v>
       </c>
       <c r="H55">
         <v>5300</v>
@@ -2673,7 +2682,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>29.76217726816773</v>
+        <v>26.74581005586592</v>
       </c>
       <c r="H56" s="2">
         <v>5400</v>
@@ -2684,7 +2693,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>29.44278691163136</v>
+        <v>26.74581005586592</v>
       </c>
       <c r="H57">
         <v>5500</v>
@@ -2695,7 +2704,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>29.84651132417257</v>
+        <v>26.62514114121512</v>
       </c>
       <c r="H58" s="2">
         <v>5600</v>
@@ -2706,7 +2715,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>29.76194509308932</v>
+        <v>41.37533619557046</v>
       </c>
       <c r="H59">
         <v>5700</v>
@@ -2717,7 +2726,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>34.23176934232991</v>
+        <v>41.29426248149818</v>
       </c>
       <c r="H60" s="2">
         <v>5800</v>
@@ -2728,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>34.40217024278832</v>
+        <v>26.83938547486034</v>
       </c>
       <c r="H61">
         <v>5900</v>
@@ -2736,7 +2745,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62">
-        <v>29.95937605115229</v>
+        <v>26.98883141694844</v>
       </c>
     </row>
   </sheetData>
@@ -2758,135 +2767,135 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
@@ -2894,17 +2903,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -2912,52 +2921,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -2993,31 +3002,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -3036,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24.43969436047382</v>
+        <v>131.1173184357542</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3047,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>35.37809218763662</v>
+        <v>131.0879888268156</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -3058,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35.75447597118858</v>
+        <v>130.8743239886447</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -3069,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>35.86596444558292</v>
+        <v>131.0265586514706</v>
       </c>
       <c r="H6" s="2">
         <v>400</v>
@@ -3080,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>35.77067467169414</v>
+        <v>130.5000222488526</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3091,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>24.32861012297636</v>
+        <v>129.8435975559337</v>
       </c>
       <c r="H8" s="2">
         <v>600</v>
@@ -3102,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24.17263638789651</v>
+        <v>130.3547708274408</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -3113,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23.62047453353023</v>
+        <v>130.4483462623888</v>
       </c>
       <c r="H10" s="2">
         <v>800</v>
@@ -3124,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23.80186061288828</v>
+        <v>130.4790725246106</v>
       </c>
       <c r="H11">
         <v>900</v>
@@ -3135,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>24.1168750314678</v>
+        <v>130.4860335195531</v>
       </c>
       <c r="H12" s="2">
         <v>1000</v>
@@ -3146,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24.23211193523181</v>
+        <v>130.572625698324</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -3157,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>24.18010957114192</v>
+        <v>130.4176200001671</v>
       </c>
       <c r="H14" s="2">
         <v>1200</v>
@@ -3168,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>24.10757948972721</v>
+        <v>130.1341003987574</v>
       </c>
       <c r="H15">
         <v>1300</v>
@@ -3179,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>24.08392740990866</v>
+        <v>130.3282345100675</v>
       </c>
       <c r="H16" s="2">
         <v>1400</v>
@@ -3190,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>24.14567525699958</v>
+        <v>129.7807483832074</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -3201,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>24.1028518878085</v>
+        <v>129.5656645476552</v>
       </c>
       <c r="H18" s="2">
         <v>1600</v>
@@ -3212,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>23.9924576483292</v>
+        <v>130.0558880949202</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -3223,7 +3232,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>24.00425740433433</v>
+        <v>130.2360557234023</v>
       </c>
       <c r="H20" s="2">
         <v>1800</v>
@@ -3234,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>24.45339043718502</v>
+        <v>132.0586817324645</v>
       </c>
       <c r="H21">
         <v>1900</v>
@@ -3245,7 +3254,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>24.69881576208547</v>
+        <v>132.0335420633739</v>
       </c>
       <c r="H22" s="2">
         <v>2000</v>
@@ -3256,7 +3265,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24.65253704067186</v>
+        <v>27.08535336043821</v>
       </c>
       <c r="H23">
         <v>2100</v>
@@ -3267,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>24.63571513688805</v>
+        <v>27.02653631284916</v>
       </c>
       <c r="H24" s="2">
         <v>2200</v>
@@ -3278,7 +3287,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24.60788832767959</v>
+        <v>27.2108938547486</v>
       </c>
       <c r="H25">
         <v>2300</v>
@@ -3289,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>24.47640249349195</v>
+        <v>26.88268156424581</v>
       </c>
       <c r="H26" s="2">
         <v>2400</v>
@@ -3300,7 +3309,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>24.28760991527536</v>
+        <v>26.8072625698324</v>
       </c>
       <c r="H27">
         <v>2500</v>
@@ -3311,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>23.92145627821908</v>
+        <v>26.8086592178771</v>
       </c>
       <c r="H28" s="2">
         <v>2600</v>
@@ -3322,7 +3331,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24.30855878163534</v>
+        <v>26.71229050279329</v>
       </c>
       <c r="H29">
         <v>2700</v>
@@ -3333,7 +3342,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>24.59270873725703</v>
+        <v>146.8282122905028</v>
       </c>
       <c r="H30" s="2">
         <v>2800</v>
@@ -3344,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>24.68925123200624</v>
+        <v>131.3980446927374</v>
       </c>
       <c r="H31">
         <v>2900</v>
@@ -3355,7 +3364,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>24.5941353818298</v>
+        <v>130.4748603351955</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
@@ -3366,7 +3375,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>24.49000530654262</v>
+        <v>145.7960893854749</v>
       </c>
       <c r="H33">
         <v>3100</v>
@@ -3377,7 +3386,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>24.42649294350104</v>
+        <v>145.9664804469274</v>
       </c>
       <c r="H34" s="2">
         <v>3200</v>
@@ -3388,7 +3397,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>24.2617118179304</v>
+        <v>131.2094972067039</v>
       </c>
       <c r="H35">
         <v>3300</v>
@@ -3399,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>24.11673614185651</v>
+        <v>131.4874301675978</v>
       </c>
       <c r="H36" s="2">
         <v>3400</v>
@@ -3410,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>24.01119243882869</v>
+        <v>131.0405027932961</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -3421,7 +3430,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>24.34851821951401</v>
+        <v>130.7332402234637</v>
       </c>
       <c r="H38" s="2">
         <v>3600</v>
@@ -3432,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>24.83363151347939</v>
+        <v>27.07821229050279</v>
       </c>
       <c r="H39">
         <v>3700</v>
@@ -3443,7 +3452,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>36.53560547555191</v>
+        <v>26.98491116892318</v>
       </c>
       <c r="H40" s="2">
         <v>3800</v>
@@ -3454,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>42.67062917156793</v>
+        <v>27.02094972067039</v>
       </c>
       <c r="H41">
         <v>3900</v>
@@ -3465,7 +3474,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42.34139365264331</v>
+        <v>26.96508379888268</v>
       </c>
       <c r="H42" s="2">
         <v>4000</v>
@@ -3476,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>42.17309016702146</v>
+        <v>131.0838212310657</v>
       </c>
       <c r="H43">
         <v>4100</v>
@@ -3487,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>42.1786387102793</v>
+        <v>27.08519553072626</v>
       </c>
       <c r="H44" s="2">
         <v>4200</v>
@@ -3498,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>34.35103130928262</v>
+        <v>130.768156424581</v>
       </c>
       <c r="H45">
         <v>4300</v>
@@ -3509,7 +3518,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>33.77425934140766</v>
+        <v>26.83100558659218</v>
       </c>
       <c r="H46" s="2">
         <v>4400</v>
@@ -3520,7 +3529,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>33.80071594653138</v>
+        <v>26.79507790592713</v>
       </c>
       <c r="H47">
         <v>4500</v>
@@ -3531,7 +3540,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>33.15473112963728</v>
+        <v>26.71493368856704</v>
       </c>
       <c r="H48" s="2">
         <v>4600</v>
@@ -3542,7 +3551,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>33.50400903098043</v>
+        <v>26.53076974210314</v>
       </c>
       <c r="H49">
         <v>4700</v>
@@ -3553,7 +3562,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>32.46327461790699</v>
+        <v>26.75049244619943</v>
       </c>
       <c r="H50" s="2">
         <v>4800</v>
@@ -3564,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>28.61209669111286</v>
+        <v>26.81485470576171</v>
       </c>
       <c r="H51">
         <v>4900</v>
@@ -3575,7 +3584,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>32.86391900329808</v>
+        <v>26.9311039349027</v>
       </c>
       <c r="H52" s="2">
         <v>5000</v>
@@ -3586,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>32.25205320169832</v>
+        <v>26.91532668425958</v>
       </c>
       <c r="H53">
         <v>5100</v>
@@ -3597,7 +3606,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>32.86163025262231</v>
+        <v>26.90689104938104</v>
       </c>
       <c r="H54" s="2">
         <v>5200</v>
@@ -3608,7 +3617,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>29.07232443926549</v>
+        <v>26.86244186439886</v>
       </c>
       <c r="H55">
         <v>5300</v>
@@ -3619,7 +3628,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>29.76217726816773</v>
+        <v>26.74581005586592</v>
       </c>
       <c r="H56" s="2">
         <v>5400</v>
@@ -3630,7 +3639,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>29.44278691163136</v>
+        <v>26.74581005586592</v>
       </c>
       <c r="H57">
         <v>5500</v>
@@ -3641,7 +3650,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>29.84651132417257</v>
+        <v>26.62514114121512</v>
       </c>
       <c r="H58" s="2">
         <v>5600</v>
@@ -3652,7 +3661,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>29.76194509308932</v>
+        <v>41.37533619557046</v>
       </c>
       <c r="H59">
         <v>5700</v>
@@ -3663,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>34.23176934232991</v>
+        <v>41.29426248149818</v>
       </c>
       <c r="H60" s="2">
         <v>5800</v>
@@ -3674,7 +3683,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>34.40217024278832</v>
+        <v>26.83938547486034</v>
       </c>
       <c r="H61">
         <v>5900</v>
@@ -3682,7 +3691,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62">
-        <v>29.95937605115229</v>
+        <v>26.98883141694844</v>
       </c>
     </row>
   </sheetData>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary - 123 - base" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - 123 - base" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary - 123 - rh1" sheetId="4" r:id="rId4"/>
-    <sheet name="Data - 123 - rh1" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary - 123 - Test1" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - 123 - Test1" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 123 - Test2" sheetId="4" r:id="rId4"/>
+    <sheet name="Data - 123 - Test2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -29,7 +29,7 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>John</t>
+    <t>Jack</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -356,7 +356,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 123 - base'!$H$2:$H$61</c:f>
+              <c:f>'Data - 123 - Test1'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -545,7 +545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 123 - base'!$B$2:$B$61</c:f>
+              <c:f>'Data - 123 - Test1'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -553,181 +553,181 @@
                   <c:v>24.43969436047382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.1173184357542</c:v>
+                  <c:v>24.43969436047382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.0879888268156</c:v>
+                  <c:v>35.37809218763662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.8743239886447</c:v>
+                  <c:v>35.75447597118858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.0265586514706</c:v>
+                  <c:v>35.86596444558292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.5000222488526</c:v>
+                  <c:v>35.77067467169414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.8435975559337</c:v>
+                  <c:v>24.32861012297636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.3547708274408</c:v>
+                  <c:v>24.17263638789651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.4483462623888</c:v>
+                  <c:v>23.62047453353023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.4790725246106</c:v>
+                  <c:v>23.80186061288828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.4860335195531</c:v>
+                  <c:v>24.1168750314678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.572625698324</c:v>
+                  <c:v>24.23211193523181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.4176200001671</c:v>
+                  <c:v>24.18010957114192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.1341003987574</c:v>
+                  <c:v>24.10757948972721</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130.3282345100675</c:v>
+                  <c:v>24.08392740990866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129.7807483832074</c:v>
+                  <c:v>24.14567525699958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.5656645476552</c:v>
+                  <c:v>24.1028518878085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.0558880949202</c:v>
+                  <c:v>23.9924576483292</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.2360557234023</c:v>
+                  <c:v>24.00425740433433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.0586817324645</c:v>
+                  <c:v>24.45339043718502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>132.0335420633739</c:v>
+                  <c:v>24.69881576208547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.08535336043821</c:v>
+                  <c:v>24.65253704067186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.02653631284916</c:v>
+                  <c:v>24.63571513688805</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.2108938547486</c:v>
+                  <c:v>24.60788832767959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.88268156424581</c:v>
+                  <c:v>24.47640249349195</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.8072625698324</c:v>
+                  <c:v>24.28760991527536</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.8086592178771</c:v>
+                  <c:v>23.92145627821908</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.71229050279329</c:v>
+                  <c:v>24.30855878163534</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.8282122905028</c:v>
+                  <c:v>24.59270873725703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>131.3980446927374</c:v>
+                  <c:v>24.68925123200624</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>130.4748603351955</c:v>
+                  <c:v>24.5941353818298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>145.7960893854749</c:v>
+                  <c:v>24.49000530654262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>145.9664804469274</c:v>
+                  <c:v>24.42649294350104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.2094972067039</c:v>
+                  <c:v>24.2617118179304</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>131.4874301675978</c:v>
+                  <c:v>24.11673614185651</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>131.0405027932961</c:v>
+                  <c:v>24.01119243882869</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>130.7332402234637</c:v>
+                  <c:v>24.34851821951401</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.07821229050279</c:v>
+                  <c:v>24.83363151347939</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.98491116892318</c:v>
+                  <c:v>36.53560547555191</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.02094972067039</c:v>
+                  <c:v>42.67062917156793</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.96508379888268</c:v>
+                  <c:v>42.34139365264331</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>131.0838212310657</c:v>
+                  <c:v>42.17309016702146</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.08519553072626</c:v>
+                  <c:v>42.1786387102793</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130.768156424581</c:v>
+                  <c:v>34.35103130928262</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.83100558659218</c:v>
+                  <c:v>33.77425934140766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.79507790592713</c:v>
+                  <c:v>33.80071594653138</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.71493368856704</c:v>
+                  <c:v>33.15473112963728</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.53076974210314</c:v>
+                  <c:v>33.50400903098043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.75049244619943</c:v>
+                  <c:v>32.46327461790699</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.81485470576171</c:v>
+                  <c:v>28.61209669111286</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.9311039349027</c:v>
+                  <c:v>32.86391900329808</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.91532668425958</c:v>
+                  <c:v>32.25205320169832</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.90689104938104</c:v>
+                  <c:v>32.86163025262231</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.86244186439886</c:v>
+                  <c:v>29.07232443926549</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26.74581005586592</c:v>
+                  <c:v>29.76217726816773</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26.74581005586592</c:v>
+                  <c:v>29.44278691163136</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.62514114121512</c:v>
+                  <c:v>29.84651132417257</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.37533619557046</c:v>
+                  <c:v>29.76194509308932</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.29426248149818</c:v>
+                  <c:v>34.23176934232991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.83938547486034</c:v>
+                  <c:v>34.40217024278832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +843,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 123 - rh1'!$H$2:$H$61</c:f>
+              <c:f>'Data - 123 - Test2'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1032,189 +1032,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 123 - rh1'!$B$2:$B$61</c:f>
+              <c:f>'Data - 123 - Test2'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>139.5335433420436</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24.43969436047382</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>131.1173184357542</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.0879888268156</c:v>
+                  <c:v>35.37809218763662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.8743239886447</c:v>
+                  <c:v>35.75447597118858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.0265586514706</c:v>
+                  <c:v>35.86596444558292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.5000222488526</c:v>
+                  <c:v>35.77067467169414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.8435975559337</c:v>
+                  <c:v>24.32861012297636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.3547708274408</c:v>
+                  <c:v>24.17263638789651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.4483462623888</c:v>
+                  <c:v>23.62047453353023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.4790725246106</c:v>
+                  <c:v>23.80186061288828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.4860335195531</c:v>
+                  <c:v>24.1168750314678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.572625698324</c:v>
+                  <c:v>24.23211193523181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.4176200001671</c:v>
+                  <c:v>24.18010957114192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.1341003987574</c:v>
+                  <c:v>24.10757948972721</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130.3282345100675</c:v>
+                  <c:v>24.08392740990866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129.7807483832074</c:v>
+                  <c:v>24.14567525699958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.5656645476552</c:v>
+                  <c:v>24.1028518878085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.0558880949202</c:v>
+                  <c:v>23.9924576483292</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.2360557234023</c:v>
+                  <c:v>24.00425740433433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.0586817324645</c:v>
+                  <c:v>24.45339043718502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>132.0335420633739</c:v>
+                  <c:v>24.69881576208547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.08535336043821</c:v>
+                  <c:v>24.65253704067186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.02653631284916</c:v>
+                  <c:v>24.63571513688805</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.2108938547486</c:v>
+                  <c:v>24.60788832767959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.88268156424581</c:v>
+                  <c:v>24.47640249349195</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.8072625698324</c:v>
+                  <c:v>24.28760991527536</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.8086592178771</c:v>
+                  <c:v>23.92145627821908</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.71229050279329</c:v>
+                  <c:v>24.30855878163534</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.8282122905028</c:v>
+                  <c:v>24.59270873725703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>131.3980446927374</c:v>
+                  <c:v>24.68925123200624</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>130.4748603351955</c:v>
+                  <c:v>24.5941353818298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>145.7960893854749</c:v>
+                  <c:v>24.49000530654262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>145.9664804469274</c:v>
+                  <c:v>24.42649294350104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.2094972067039</c:v>
+                  <c:v>24.2617118179304</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>131.4874301675978</c:v>
+                  <c:v>24.11673614185651</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>131.0405027932961</c:v>
+                  <c:v>24.01119243882869</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>130.7332402234637</c:v>
+                  <c:v>24.34851821951401</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.07821229050279</c:v>
+                  <c:v>24.83363151347939</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.98491116892318</c:v>
+                  <c:v>36.53560547555191</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.02094972067039</c:v>
+                  <c:v>42.67062917156793</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.96508379888268</c:v>
+                  <c:v>42.34139365264331</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>131.0838212310657</c:v>
+                  <c:v>42.17309016702146</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.08519553072626</c:v>
+                  <c:v>42.1786387102793</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130.768156424581</c:v>
+                  <c:v>34.35103130928262</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.83100558659218</c:v>
+                  <c:v>33.77425934140766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.79507790592713</c:v>
+                  <c:v>33.80071594653138</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.71493368856704</c:v>
+                  <c:v>33.15473112963728</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.53076974210314</c:v>
+                  <c:v>33.50400903098043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.75049244619943</c:v>
+                  <c:v>32.46327461790699</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.81485470576171</c:v>
+                  <c:v>28.61209669111286</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.9311039349027</c:v>
+                  <c:v>32.86391900329808</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.91532668425958</c:v>
+                  <c:v>32.25205320169832</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.90689104938104</c:v>
+                  <c:v>32.86163025262231</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.86244186439886</c:v>
+                  <c:v>29.07232443926549</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26.74581005586592</c:v>
+                  <c:v>29.76217726816773</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26.74581005586592</c:v>
+                  <c:v>29.44278691163136</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.62514114121512</c:v>
+                  <c:v>29.84651132417257</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.37533619557046</c:v>
+                  <c:v>29.76194509308932</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.29426248149818</c:v>
+                  <c:v>34.23176934232991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.83938547486034</c:v>
+                  <c:v>34.40217024278832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>131.1173184357542</v>
+        <v>24.43969436047382</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>131.0879888268156</v>
+        <v>35.37809218763662</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -2121,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130.8743239886447</v>
+        <v>35.75447597118858</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>131.0265586514706</v>
+        <v>35.86596444558292</v>
       </c>
       <c r="H6" s="2">
         <v>400</v>
@@ -2143,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>130.5000222488526</v>
+        <v>35.77067467169414</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>129.8435975559337</v>
+        <v>24.32861012297636</v>
       </c>
       <c r="H8" s="2">
         <v>600</v>
@@ -2165,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>130.3547708274408</v>
+        <v>24.17263638789651</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -2176,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>130.4483462623888</v>
+        <v>23.62047453353023</v>
       </c>
       <c r="H10" s="2">
         <v>800</v>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>130.4790725246106</v>
+        <v>23.80186061288828</v>
       </c>
       <c r="H11">
         <v>900</v>
@@ -2198,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>130.4860335195531</v>
+        <v>24.1168750314678</v>
       </c>
       <c r="H12" s="2">
         <v>1000</v>
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>130.572625698324</v>
+        <v>24.23211193523181</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -2220,7 +2220,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>130.4176200001671</v>
+        <v>24.18010957114192</v>
       </c>
       <c r="H14" s="2">
         <v>1200</v>
@@ -2231,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130.1341003987574</v>
+        <v>24.10757948972721</v>
       </c>
       <c r="H15">
         <v>1300</v>
@@ -2242,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>130.3282345100675</v>
+        <v>24.08392740990866</v>
       </c>
       <c r="H16" s="2">
         <v>1400</v>
@@ -2253,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>129.7807483832074</v>
+        <v>24.14567525699958</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -2264,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>129.5656645476552</v>
+        <v>24.1028518878085</v>
       </c>
       <c r="H18" s="2">
         <v>1600</v>
@@ -2275,7 +2275,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>130.0558880949202</v>
+        <v>23.9924576483292</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>130.2360557234023</v>
+        <v>24.00425740433433</v>
       </c>
       <c r="H20" s="2">
         <v>1800</v>
@@ -2297,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>132.0586817324645</v>
+        <v>24.45339043718502</v>
       </c>
       <c r="H21">
         <v>1900</v>
@@ -2308,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>132.0335420633739</v>
+        <v>24.69881576208547</v>
       </c>
       <c r="H22" s="2">
         <v>2000</v>
@@ -2319,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27.08535336043821</v>
+        <v>24.65253704067186</v>
       </c>
       <c r="H23">
         <v>2100</v>
@@ -2330,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>27.02653631284916</v>
+        <v>24.63571513688805</v>
       </c>
       <c r="H24" s="2">
         <v>2200</v>
@@ -2341,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27.2108938547486</v>
+        <v>24.60788832767959</v>
       </c>
       <c r="H25">
         <v>2300</v>
@@ -2352,7 +2352,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>26.88268156424581</v>
+        <v>24.47640249349195</v>
       </c>
       <c r="H26" s="2">
         <v>2400</v>
@@ -2363,7 +2363,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>26.8072625698324</v>
+        <v>24.28760991527536</v>
       </c>
       <c r="H27">
         <v>2500</v>
@@ -2374,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>26.8086592178771</v>
+        <v>23.92145627821908</v>
       </c>
       <c r="H28" s="2">
         <v>2600</v>
@@ -2385,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>26.71229050279329</v>
+        <v>24.30855878163534</v>
       </c>
       <c r="H29">
         <v>2700</v>
@@ -2396,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>146.8282122905028</v>
+        <v>24.59270873725703</v>
       </c>
       <c r="H30" s="2">
         <v>2800</v>
@@ -2407,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>131.3980446927374</v>
+        <v>24.68925123200624</v>
       </c>
       <c r="H31">
         <v>2900</v>
@@ -2418,7 +2418,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>130.4748603351955</v>
+        <v>24.5941353818298</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
@@ -2429,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>145.7960893854749</v>
+        <v>24.49000530654262</v>
       </c>
       <c r="H33">
         <v>3100</v>
@@ -2440,7 +2440,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>145.9664804469274</v>
+        <v>24.42649294350104</v>
       </c>
       <c r="H34" s="2">
         <v>3200</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>131.2094972067039</v>
+        <v>24.2617118179304</v>
       </c>
       <c r="H35">
         <v>3300</v>
@@ -2462,7 +2462,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>131.4874301675978</v>
+        <v>24.11673614185651</v>
       </c>
       <c r="H36" s="2">
         <v>3400</v>
@@ -2473,7 +2473,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>131.0405027932961</v>
+        <v>24.01119243882869</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -2484,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>130.7332402234637</v>
+        <v>24.34851821951401</v>
       </c>
       <c r="H38" s="2">
         <v>3600</v>
@@ -2495,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>27.07821229050279</v>
+        <v>24.83363151347939</v>
       </c>
       <c r="H39">
         <v>3700</v>
@@ -2506,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>26.98491116892318</v>
+        <v>36.53560547555191</v>
       </c>
       <c r="H40" s="2">
         <v>3800</v>
@@ -2517,7 +2517,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>27.02094972067039</v>
+        <v>42.67062917156793</v>
       </c>
       <c r="H41">
         <v>3900</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>26.96508379888268</v>
+        <v>42.34139365264331</v>
       </c>
       <c r="H42" s="2">
         <v>4000</v>
@@ -2539,7 +2539,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>131.0838212310657</v>
+        <v>42.17309016702146</v>
       </c>
       <c r="H43">
         <v>4100</v>
@@ -2550,7 +2550,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>27.08519553072626</v>
+        <v>42.1786387102793</v>
       </c>
       <c r="H44" s="2">
         <v>4200</v>
@@ -2561,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>130.768156424581</v>
+        <v>34.35103130928262</v>
       </c>
       <c r="H45">
         <v>4300</v>
@@ -2572,7 +2572,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>26.83100558659218</v>
+        <v>33.77425934140766</v>
       </c>
       <c r="H46" s="2">
         <v>4400</v>
@@ -2583,7 +2583,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>26.79507790592713</v>
+        <v>33.80071594653138</v>
       </c>
       <c r="H47">
         <v>4500</v>
@@ -2594,7 +2594,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>26.71493368856704</v>
+        <v>33.15473112963728</v>
       </c>
       <c r="H48" s="2">
         <v>4600</v>
@@ -2605,7 +2605,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>26.53076974210314</v>
+        <v>33.50400903098043</v>
       </c>
       <c r="H49">
         <v>4700</v>
@@ -2616,7 +2616,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>26.75049244619943</v>
+        <v>32.46327461790699</v>
       </c>
       <c r="H50" s="2">
         <v>4800</v>
@@ -2627,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>26.81485470576171</v>
+        <v>28.61209669111286</v>
       </c>
       <c r="H51">
         <v>4900</v>
@@ -2638,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>26.9311039349027</v>
+        <v>32.86391900329808</v>
       </c>
       <c r="H52" s="2">
         <v>5000</v>
@@ -2649,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>26.91532668425958</v>
+        <v>32.25205320169832</v>
       </c>
       <c r="H53">
         <v>5100</v>
@@ -2660,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>26.90689104938104</v>
+        <v>32.86163025262231</v>
       </c>
       <c r="H54" s="2">
         <v>5200</v>
@@ -2671,7 +2671,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>26.86244186439886</v>
+        <v>29.07232443926549</v>
       </c>
       <c r="H55">
         <v>5300</v>
@@ -2682,7 +2682,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>26.74581005586592</v>
+        <v>29.76217726816773</v>
       </c>
       <c r="H56" s="2">
         <v>5400</v>
@@ -2693,7 +2693,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>26.74581005586592</v>
+        <v>29.44278691163136</v>
       </c>
       <c r="H57">
         <v>5500</v>
@@ -2704,7 +2704,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>26.62514114121512</v>
+        <v>29.84651132417257</v>
       </c>
       <c r="H58" s="2">
         <v>5600</v>
@@ -2715,7 +2715,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>41.37533619557046</v>
+        <v>29.76194509308932</v>
       </c>
       <c r="H59">
         <v>5700</v>
@@ -2726,7 +2726,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>41.29426248149818</v>
+        <v>34.23176934232991</v>
       </c>
       <c r="H60" s="2">
         <v>5800</v>
@@ -2737,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>26.83938547486034</v>
+        <v>34.40217024278832</v>
       </c>
       <c r="H61">
         <v>5900</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62">
-        <v>26.98883141694844</v>
+        <v>29.95937605115229</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>24.43969436047382</v>
+        <v>139.5335433420436</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>131.1173184357542</v>
+        <v>24.43969436047382</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3056,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>131.0879888268156</v>
+        <v>35.37809218763662</v>
       </c>
       <c r="H4" s="2">
         <v>200</v>
@@ -3067,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130.8743239886447</v>
+        <v>35.75447597118858</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>131.0265586514706</v>
+        <v>35.86596444558292</v>
       </c>
       <c r="H6" s="2">
         <v>400</v>
@@ -3089,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>130.5000222488526</v>
+        <v>35.77067467169414</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>129.8435975559337</v>
+        <v>24.32861012297636</v>
       </c>
       <c r="H8" s="2">
         <v>600</v>
@@ -3111,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>130.3547708274408</v>
+        <v>24.17263638789651</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -3122,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>130.4483462623888</v>
+        <v>23.62047453353023</v>
       </c>
       <c r="H10" s="2">
         <v>800</v>
@@ -3133,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>130.4790725246106</v>
+        <v>23.80186061288828</v>
       </c>
       <c r="H11">
         <v>900</v>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>130.4860335195531</v>
+        <v>24.1168750314678</v>
       </c>
       <c r="H12" s="2">
         <v>1000</v>
@@ -3155,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>130.572625698324</v>
+        <v>24.23211193523181</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -3166,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>130.4176200001671</v>
+        <v>24.18010957114192</v>
       </c>
       <c r="H14" s="2">
         <v>1200</v>
@@ -3177,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130.1341003987574</v>
+        <v>24.10757948972721</v>
       </c>
       <c r="H15">
         <v>1300</v>
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>130.3282345100675</v>
+        <v>24.08392740990866</v>
       </c>
       <c r="H16" s="2">
         <v>1400</v>
@@ -3199,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>129.7807483832074</v>
+        <v>24.14567525699958</v>
       </c>
       <c r="H17">
         <v>1500</v>
@@ -3210,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>129.5656645476552</v>
+        <v>24.1028518878085</v>
       </c>
       <c r="H18" s="2">
         <v>1600</v>
@@ -3221,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>130.0558880949202</v>
+        <v>23.9924576483292</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -3232,7 +3232,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>130.2360557234023</v>
+        <v>24.00425740433433</v>
       </c>
       <c r="H20" s="2">
         <v>1800</v>
@@ -3243,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>132.0586817324645</v>
+        <v>24.45339043718502</v>
       </c>
       <c r="H21">
         <v>1900</v>
@@ -3254,7 +3254,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>132.0335420633739</v>
+        <v>24.69881576208547</v>
       </c>
       <c r="H22" s="2">
         <v>2000</v>
@@ -3265,7 +3265,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27.08535336043821</v>
+        <v>24.65253704067186</v>
       </c>
       <c r="H23">
         <v>2100</v>
@@ -3276,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>27.02653631284916</v>
+        <v>24.63571513688805</v>
       </c>
       <c r="H24" s="2">
         <v>2200</v>
@@ -3287,7 +3287,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27.2108938547486</v>
+        <v>24.60788832767959</v>
       </c>
       <c r="H25">
         <v>2300</v>
@@ -3298,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>26.88268156424581</v>
+        <v>24.47640249349195</v>
       </c>
       <c r="H26" s="2">
         <v>2400</v>
@@ -3309,7 +3309,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>26.8072625698324</v>
+        <v>24.28760991527536</v>
       </c>
       <c r="H27">
         <v>2500</v>
@@ -3320,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>26.8086592178771</v>
+        <v>23.92145627821908</v>
       </c>
       <c r="H28" s="2">
         <v>2600</v>
@@ -3331,7 +3331,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>26.71229050279329</v>
+        <v>24.30855878163534</v>
       </c>
       <c r="H29">
         <v>2700</v>
@@ -3342,7 +3342,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>146.8282122905028</v>
+        <v>24.59270873725703</v>
       </c>
       <c r="H30" s="2">
         <v>2800</v>
@@ -3353,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>131.3980446927374</v>
+        <v>24.68925123200624</v>
       </c>
       <c r="H31">
         <v>2900</v>
@@ -3364,7 +3364,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>130.4748603351955</v>
+        <v>24.5941353818298</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
@@ -3375,7 +3375,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>145.7960893854749</v>
+        <v>24.49000530654262</v>
       </c>
       <c r="H33">
         <v>3100</v>
@@ -3386,7 +3386,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>145.9664804469274</v>
+        <v>24.42649294350104</v>
       </c>
       <c r="H34" s="2">
         <v>3200</v>
@@ -3397,7 +3397,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>131.2094972067039</v>
+        <v>24.2617118179304</v>
       </c>
       <c r="H35">
         <v>3300</v>
@@ -3408,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>131.4874301675978</v>
+        <v>24.11673614185651</v>
       </c>
       <c r="H36" s="2">
         <v>3400</v>
@@ -3419,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>131.0405027932961</v>
+        <v>24.01119243882869</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -3430,7 +3430,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>130.7332402234637</v>
+        <v>24.34851821951401</v>
       </c>
       <c r="H38" s="2">
         <v>3600</v>
@@ -3441,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>27.07821229050279</v>
+        <v>24.83363151347939</v>
       </c>
       <c r="H39">
         <v>3700</v>
@@ -3452,7 +3452,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>26.98491116892318</v>
+        <v>36.53560547555191</v>
       </c>
       <c r="H40" s="2">
         <v>3800</v>
@@ -3463,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>27.02094972067039</v>
+        <v>42.67062917156793</v>
       </c>
       <c r="H41">
         <v>3900</v>
@@ -3474,7 +3474,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>26.96508379888268</v>
+        <v>42.34139365264331</v>
       </c>
       <c r="H42" s="2">
         <v>4000</v>
@@ -3485,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>131.0838212310657</v>
+        <v>42.17309016702146</v>
       </c>
       <c r="H43">
         <v>4100</v>
@@ -3496,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>27.08519553072626</v>
+        <v>42.1786387102793</v>
       </c>
       <c r="H44" s="2">
         <v>4200</v>
@@ -3507,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>130.768156424581</v>
+        <v>34.35103130928262</v>
       </c>
       <c r="H45">
         <v>4300</v>
@@ -3518,7 +3518,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>26.83100558659218</v>
+        <v>33.77425934140766</v>
       </c>
       <c r="H46" s="2">
         <v>4400</v>
@@ -3529,7 +3529,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>26.79507790592713</v>
+        <v>33.80071594653138</v>
       </c>
       <c r="H47">
         <v>4500</v>
@@ -3540,7 +3540,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>26.71493368856704</v>
+        <v>33.15473112963728</v>
       </c>
       <c r="H48" s="2">
         <v>4600</v>
@@ -3551,7 +3551,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>26.53076974210314</v>
+        <v>33.50400903098043</v>
       </c>
       <c r="H49">
         <v>4700</v>
@@ -3562,7 +3562,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>26.75049244619943</v>
+        <v>32.46327461790699</v>
       </c>
       <c r="H50" s="2">
         <v>4800</v>
@@ -3573,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>26.81485470576171</v>
+        <v>28.61209669111286</v>
       </c>
       <c r="H51">
         <v>4900</v>
@@ -3584,7 +3584,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>26.9311039349027</v>
+        <v>32.86391900329808</v>
       </c>
       <c r="H52" s="2">
         <v>5000</v>
@@ -3595,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>26.91532668425958</v>
+        <v>32.25205320169832</v>
       </c>
       <c r="H53">
         <v>5100</v>
@@ -3606,7 +3606,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>26.90689104938104</v>
+        <v>32.86163025262231</v>
       </c>
       <c r="H54" s="2">
         <v>5200</v>
@@ -3617,7 +3617,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>26.86244186439886</v>
+        <v>29.07232443926549</v>
       </c>
       <c r="H55">
         <v>5300</v>
@@ -3628,7 +3628,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>26.74581005586592</v>
+        <v>29.76217726816773</v>
       </c>
       <c r="H56" s="2">
         <v>5400</v>
@@ -3639,7 +3639,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>26.74581005586592</v>
+        <v>29.44278691163136</v>
       </c>
       <c r="H57">
         <v>5500</v>
@@ -3650,7 +3650,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>26.62514114121512</v>
+        <v>29.84651132417257</v>
       </c>
       <c r="H58" s="2">
         <v>5600</v>
@@ -3661,7 +3661,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>41.37533619557046</v>
+        <v>29.76194509308932</v>
       </c>
       <c r="H59">
         <v>5700</v>
@@ -3672,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>41.29426248149818</v>
+        <v>34.23176934232991</v>
       </c>
       <c r="H60" s="2">
         <v>5800</v>
@@ -3683,7 +3683,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>26.83938547486034</v>
+        <v>34.40217024278832</v>
       </c>
       <c r="H61">
         <v>5900</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62">
-        <v>26.98883141694844</v>
+        <v>29.95937605115229</v>
       </c>
     </row>
   </sheetData>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,30 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary - 123 - Test1" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - 123 - Test1" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary - 123 - Test2" sheetId="4" r:id="rId4"/>
-    <sheet name="Data - 123 - Test2" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary -  - " sheetId="2" r:id="rId2"/>
+    <sheet name="Data -  - " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Study Name</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -66,12 +58,6 @@
   </si>
   <si>
     <t>Image File</t>
-  </si>
-  <si>
-    <t>Image Frames</t>
-  </si>
-  <si>
-    <t>Length(sec.)</t>
   </si>
   <si>
     <t>DIAMETER</t>
@@ -356,7 +342,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 123 - Test1'!$H$2:$H$61</c:f>
+              <c:f>'Data -  - '!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -545,7 +531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 123 - Test1'!$B$2:$B$61</c:f>
+              <c:f>'Data -  - '!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -812,529 +798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Baseline Test Diameter</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Data - 123 - Test2'!$H$2:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Data - 123 - Test2'!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>139.5335433420436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.43969436047382</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.37809218763662</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.75447597118858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.86596444558292</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.77067467169414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.32861012297636</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.17263638789651</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.62047453353023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.80186061288828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.1168750314678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.23211193523181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.18010957114192</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.10757948972721</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.08392740990866</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.14567525699958</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.1028518878085</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.9924576483292</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.00425740433433</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.45339043718502</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.69881576208547</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.65253704067186</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.63571513688805</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.60788832767959</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.47640249349195</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.28760991527536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.92145627821908</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.30855878163534</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.59270873725703</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.68925123200624</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.5941353818298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.49000530654262</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.42649294350104</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.2617118179304</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.11673614185651</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.01119243882869</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.34851821951401</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.83363151347939</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>36.53560547555191</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.67062917156793</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42.34139365264331</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.17309016702146</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.1786387102793</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>34.35103130928262</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33.77425934140766</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.80071594653138</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33.15473112963728</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.50400903098043</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>32.46327461790699</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28.61209669111286</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.86391900329808</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>32.25205320169832</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.86163025262231</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.07232443926549</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29.76217726816773</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.44278691163136</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.84651132417257</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29.76194509308932</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>34.23176934232991</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>34.40217024278832</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Diameter (pixels)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1668,138 +1132,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="H3" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2">
-        <v>61</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>500</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1821,153 +1255,150 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -1975,52 +1406,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -2056,31 +1487,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -2089,952 +1520,6 @@
       </c>
       <c r="B2" s="2">
         <v>24.43969436047382</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>24.43969436047382</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>35.37809218763662</v>
-      </c>
-      <c r="H4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>35.75447597118858</v>
-      </c>
-      <c r="H5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35.86596444558292</v>
-      </c>
-      <c r="H6" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35.77067467169414</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>24.32861012297636</v>
-      </c>
-      <c r="H8" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>24.17263638789651</v>
-      </c>
-      <c r="H9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>23.62047453353023</v>
-      </c>
-      <c r="H10" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>23.80186061288828</v>
-      </c>
-      <c r="H11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>24.1168750314678</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>24.23211193523181</v>
-      </c>
-      <c r="H13">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>24.18010957114192</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>24.10757948972721</v>
-      </c>
-      <c r="H15">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>24.08392740990866</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>24.14567525699958</v>
-      </c>
-      <c r="H17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>24.1028518878085</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>23.9924576483292</v>
-      </c>
-      <c r="H19">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>24.00425740433433</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>24.45339043718502</v>
-      </c>
-      <c r="H21">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>24.69881576208547</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>24.65253704067186</v>
-      </c>
-      <c r="H23">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>24.63571513688805</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24.60788832767959</v>
-      </c>
-      <c r="H25">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>24.47640249349195</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>24.28760991527536</v>
-      </c>
-      <c r="H27">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>23.92145627821908</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>24.30855878163534</v>
-      </c>
-      <c r="H29">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>24.59270873725703</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>24.68925123200624</v>
-      </c>
-      <c r="H31">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>24.5941353818298</v>
-      </c>
-      <c r="H32" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>24.49000530654262</v>
-      </c>
-      <c r="H33">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>24.42649294350104</v>
-      </c>
-      <c r="H34" s="2">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>24.2617118179304</v>
-      </c>
-      <c r="H35">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>24.11673614185651</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>24.01119243882869</v>
-      </c>
-      <c r="H37">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>24.34851821951401</v>
-      </c>
-      <c r="H38" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>24.83363151347939</v>
-      </c>
-      <c r="H39">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>36.53560547555191</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>42.67062917156793</v>
-      </c>
-      <c r="H41">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42.34139365264331</v>
-      </c>
-      <c r="H42" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>42.17309016702146</v>
-      </c>
-      <c r="H43">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>42.1786387102793</v>
-      </c>
-      <c r="H44" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>34.35103130928262</v>
-      </c>
-      <c r="H45">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>33.77425934140766</v>
-      </c>
-      <c r="H46" s="2">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>33.80071594653138</v>
-      </c>
-      <c r="H47">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>33.15473112963728</v>
-      </c>
-      <c r="H48" s="2">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>33.50400903098043</v>
-      </c>
-      <c r="H49">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>32.46327461790699</v>
-      </c>
-      <c r="H50" s="2">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>28.61209669111286</v>
-      </c>
-      <c r="H51">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="2" customFormat="1">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>32.86391900329808</v>
-      </c>
-      <c r="H52" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>32.25205320169832</v>
-      </c>
-      <c r="H53">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>32.86163025262231</v>
-      </c>
-      <c r="H54" s="2">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>29.07232443926549</v>
-      </c>
-      <c r="H55">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>29.76217726816773</v>
-      </c>
-      <c r="H56" s="2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>29.44278691163136</v>
-      </c>
-      <c r="H57">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>29.84651132417257</v>
-      </c>
-      <c r="H58" s="2">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>29.76194509308932</v>
-      </c>
-      <c r="H59">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>34.23176934232991</v>
-      </c>
-      <c r="H60" s="2">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>34.40217024278832</v>
-      </c>
-      <c r="H61">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62">
-        <v>29.95937605115229</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="2" customFormat="1"/>
-    <row r="36" spans="1:1" s="2" customFormat="1"/>
-    <row r="38" spans="1:1" s="2" customFormat="1"/>
-    <row r="40" spans="1:1" s="2" customFormat="1"/>
-    <row r="42" spans="1:1" s="2" customFormat="1"/>
-    <row r="44" spans="1:1" s="2" customFormat="1"/>
-    <row r="46" spans="1:1" s="2" customFormat="1"/>
-    <row r="48" spans="1:1" s="2" customFormat="1"/>
-    <row r="50" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="29" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>139.5335433420436</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,22 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary -  - " sheetId="2" r:id="rId2"/>
-    <sheet name="Data -  - " sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 123 - base" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - 123 - base" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 123 - rh1" sheetId="4" r:id="rId4"/>
+    <sheet name="Data - 123 - rh1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>Study Name</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>joe</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -36,30 +44,192 @@
     <t>Reader ID</t>
   </si>
   <si>
+    <t>No AVG</t>
+  </si>
+  <si>
+    <t>3-sec AVG</t>
+  </si>
+  <si>
+    <t>5-sec AVG</t>
+  </si>
+  <si>
+    <t>10-sec AVG</t>
+  </si>
+  <si>
+    <t>Unscaled %FMD</t>
+  </si>
+  <si>
+    <t>Allometrically Scaled %FMD</t>
+  </si>
+  <si>
+    <t>Time to peak (s)</t>
+  </si>
+  <si>
+    <t>BRACHIAL-REPORT</t>
+  </si>
+  <si>
+    <t>Report-date</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Subject-ID</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Pat-ID-type</t>
+  </si>
+  <si>
+    <t>Study-ID</t>
+  </si>
+  <si>
+    <t>Study-type</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>StageName</t>
+  </si>
+  <si>
+    <t>Subject-Gender</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date-of-birth</t>
+  </si>
+  <si>
+    <t>A While Back</t>
+  </si>
+  <si>
+    <t>Imaging-date</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Analysis-date</t>
+  </si>
+  <si>
+    <t>Machine-ID</t>
+  </si>
+  <si>
+    <t>GE Ultrasound</t>
+  </si>
+  <si>
+    <t>Probe-ID</t>
+  </si>
+  <si>
+    <t>Sonographer-ID</t>
+  </si>
+  <si>
+    <t>Interpreter-ID</t>
+  </si>
+  <si>
+    <t>SDY-filename</t>
+  </si>
+  <si>
+    <t>C:/Users/User/Documents/GitHub/FMD_Senior_Design/Resources/14.05.25 hrs __[0011697].avi</t>
+  </si>
+  <si>
+    <t>Image-filename</t>
+  </si>
+  <si>
+    <t>Pixel-siz-mm/p</t>
+  </si>
+  <si>
+    <t>ROI-length-mm</t>
+  </si>
+  <si>
+    <t>Frame-initialized</t>
+  </si>
+  <si>
+    <t>Frames-total</t>
+  </si>
+  <si>
+    <t>Frames-valid</t>
+  </si>
+  <si>
+    <t>Frames-reject</t>
+  </si>
+  <si>
+    <t>Frames-exclud</t>
+  </si>
+  <si>
+    <t>Frames-edited</t>
+  </si>
+  <si>
+    <t>Frames-notanal</t>
+  </si>
+  <si>
+    <t>Confid-thresh</t>
+  </si>
+  <si>
+    <t>Trend-thresh</t>
+  </si>
+  <si>
+    <t>Trend-MSE-mm</t>
+  </si>
+  <si>
+    <t>Reproduc-round</t>
+  </si>
+  <si>
+    <t>Reading-number</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>AVG Pixel Diameter</t>
+  </si>
+  <si>
+    <t>BDIAMM</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>STYPE</t>
+  </si>
+  <si>
+    <t>SDATE</t>
+  </si>
+  <si>
+    <t>STIME</t>
+  </si>
+  <si>
+    <t>MSEC</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
     <t>Date Scanned</t>
   </si>
   <si>
-    <t>Yesterday</t>
-  </si>
-  <si>
     <t>Date Analyzed</t>
   </si>
   <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Deflation</t>
-  </si>
-  <si>
     <t>Image File</t>
   </si>
   <si>
+    <t>Image Frames</t>
+  </si>
+  <si>
+    <t>Length(sec.)</t>
+  </si>
+  <si>
     <t>DIAMETER</t>
   </si>
   <si>
@@ -90,160 +260,7 @@
     <t>Flow velocity integral avg (meters</t>
   </si>
   <si>
-    <t>No AVG</t>
-  </si>
-  <si>
-    <t>3-sec AVG</t>
-  </si>
-  <si>
-    <t>5-sec AVG</t>
-  </si>
-  <si>
-    <t>10-sec AVG</t>
-  </si>
-  <si>
-    <t>Unscaled %FMD</t>
-  </si>
-  <si>
-    <t>Allometrically Scaled %FMD</t>
-  </si>
-  <si>
-    <t>Time to peak (s)</t>
-  </si>
-  <si>
-    <t>BRACHIAL-REPORT</t>
-  </si>
-  <si>
-    <t>Report-date</t>
-  </si>
-  <si>
-    <t>Subject-ID</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Pat-ID-type</t>
-  </si>
-  <si>
-    <t>Study-ID</t>
-  </si>
-  <si>
-    <t>Study-type</t>
-  </si>
-  <si>
-    <t>StageName</t>
-  </si>
-  <si>
-    <t>Subject-Gender</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date-of-birth</t>
-  </si>
-  <si>
-    <t>A While Back</t>
-  </si>
-  <si>
-    <t>Imaging-date</t>
-  </si>
-  <si>
-    <t>Analysis-date</t>
-  </si>
-  <si>
-    <t>Machine-ID</t>
-  </si>
-  <si>
-    <t>GE Ultrasound</t>
-  </si>
-  <si>
-    <t>Probe-ID</t>
-  </si>
-  <si>
-    <t>Sonographer-ID</t>
-  </si>
-  <si>
-    <t>Interpreter-ID</t>
-  </si>
-  <si>
-    <t>SDY-filename</t>
-  </si>
-  <si>
-    <t>Image-filename</t>
-  </si>
-  <si>
-    <t>Pixel-siz-mm/p</t>
-  </si>
-  <si>
-    <t>ROI-length-mm</t>
-  </si>
-  <si>
-    <t>Frame-initialized</t>
-  </si>
-  <si>
-    <t>Frames-total</t>
-  </si>
-  <si>
-    <t>Frames-valid</t>
-  </si>
-  <si>
-    <t>Frames-reject</t>
-  </si>
-  <si>
-    <t>Frames-exclud</t>
-  </si>
-  <si>
-    <t>Frames-edited</t>
-  </si>
-  <si>
-    <t>Frames-notanal</t>
-  </si>
-  <si>
-    <t>Confid-thresh</t>
-  </si>
-  <si>
-    <t>Trend-thresh</t>
-  </si>
-  <si>
-    <t>Trend-MSE-mm</t>
-  </si>
-  <si>
-    <t>Reproduc-round</t>
-  </si>
-  <si>
-    <t>Reading-number</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>AVG Pixel Diameter</t>
-  </si>
-  <si>
-    <t>BDIAMM</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>STYPE</t>
-  </si>
-  <si>
-    <t>SDATE</t>
-  </si>
-  <si>
-    <t>STIME</t>
-  </si>
-  <si>
-    <t>MSEC</t>
-  </si>
-  <si>
-    <t>COND</t>
+    <t>C:/Users/User/Documents/GitHub/FMD_Senior_Design/Resources/14.13.37 hrs __[0011703].avi</t>
   </si>
 </sst>
 </file>
@@ -342,7 +359,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data -  - '!$H$2:$H$61</c:f>
+              <c:f>'Data - 123 - base'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -531,7 +548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data -  - '!$B$2:$B$61</c:f>
+              <c:f>'Data - 123 - base'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -798,7 +815,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baseline Test Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data - 123 - rh1'!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data - 123 - rh1'!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>131.1173184357542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.37809218763662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.75447597118858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.86596444558292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.77067467169414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.32861012297636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.17263638789651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.62047453353023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.80186061288828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1168750314678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.23211193523181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.18010957114192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.10757948972721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.08392740990866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.14567525699958</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.1028518878085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.9924576483292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.00425740433433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.45339043718502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.69881576208547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.65253704067186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.63571513688805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.60788832767959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.47640249349195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.28760991527536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.92145627821908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.30855878163534</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.59270873725703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.68925123200624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.5941353818298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.49000530654262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.42649294350104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.2617118179304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.11673614185651</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.01119243882869</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.34851821951401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.83363151347939</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.53560547555191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.67062917156793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.34139365264331</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.17309016702146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.1786387102793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.35103130928262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.77425934140766</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.80071594653138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.15473112963728</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.50400903098043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.46327461790699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.61209669111286</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.86391900329808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.25205320169832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.86163025262231</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.07232443926549</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.76217726816773</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.44278691163136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.84651132417257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.76194509308932</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.23176934232991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.40217024278832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Diameter (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1132,108 +1671,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>28.67149048474273</v>
+      </c>
+      <c r="N2" s="2">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="O2" s="2">
+        <v>42.67062917156793</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>61</v>
+      </c>
+      <c r="K3">
+        <v>6.1</v>
+      </c>
+      <c r="M3">
+        <v>30.42030399417355</v>
+      </c>
+      <c r="N3">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="O3">
+        <v>131.1173184357542</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1255,132 +1845,141 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
@@ -1388,17 +1987,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -1406,52 +2005,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -1487,31 +2086,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -1520,6 +2119,958 @@
       </c>
       <c r="B2" s="2">
         <v>24.43969436047382</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24.43969436047382</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35.37809218763662</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>35.75447597118858</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.86596444558292</v>
+      </c>
+      <c r="H6" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35.77067467169414</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24.32861012297636</v>
+      </c>
+      <c r="H8" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24.17263638789651</v>
+      </c>
+      <c r="H9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="H10" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23.80186061288828</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24.1168750314678</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24.23211193523181</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.18010957114192</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24.10757948972721</v>
+      </c>
+      <c r="H15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24.08392740990866</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>24.14567525699958</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>24.1028518878085</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23.9924576483292</v>
+      </c>
+      <c r="H19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.00425740433433</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>24.45339043718502</v>
+      </c>
+      <c r="H21">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>24.69881576208547</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>24.65253704067186</v>
+      </c>
+      <c r="H23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>24.63571513688805</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24.60788832767959</v>
+      </c>
+      <c r="H25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24.47640249349195</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>24.28760991527536</v>
+      </c>
+      <c r="H27">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>23.92145627821908</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>24.30855878163534</v>
+      </c>
+      <c r="H29">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24.59270873725703</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>24.68925123200624</v>
+      </c>
+      <c r="H31">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24.5941353818298</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>24.49000530654262</v>
+      </c>
+      <c r="H33">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>24.42649294350104</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24.2617118179304</v>
+      </c>
+      <c r="H35">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>24.11673614185651</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>24.01119243882869</v>
+      </c>
+      <c r="H37">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>24.34851821951401</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>24.83363151347939</v>
+      </c>
+      <c r="H39">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.53560547555191</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>42.67062917156793</v>
+      </c>
+      <c r="H41">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42.34139365264331</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42.17309016702146</v>
+      </c>
+      <c r="H43">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42.1786387102793</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>34.35103130928262</v>
+      </c>
+      <c r="H45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33.77425934140766</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>33.80071594653138</v>
+      </c>
+      <c r="H47">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.15473112963728</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>33.50400903098043</v>
+      </c>
+      <c r="H49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>32.46327461790699</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28.61209669111286</v>
+      </c>
+      <c r="H51">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32.86391900329808</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>32.25205320169832</v>
+      </c>
+      <c r="H53">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32.86163025262231</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>29.07232443926549</v>
+      </c>
+      <c r="H55">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>29.76217726816773</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>29.44278691163136</v>
+      </c>
+      <c r="H57">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>29.84651132417257</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>29.76194509308932</v>
+      </c>
+      <c r="H59">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>34.23176934232991</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>34.40217024278832</v>
+      </c>
+      <c r="H61">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62">
+        <v>29.95937605115229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1"/>
+    <row r="36" spans="1:1" s="2" customFormat="1"/>
+    <row r="38" spans="1:1" s="2" customFormat="1"/>
+    <row r="40" spans="1:1" s="2" customFormat="1"/>
+    <row r="42" spans="1:1" s="2" customFormat="1"/>
+    <row r="44" spans="1:1" s="2" customFormat="1"/>
+    <row r="46" spans="1:1" s="2" customFormat="1"/>
+    <row r="48" spans="1:1" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="29" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131.1173184357542</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,30 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary - 123 - base" sheetId="2" r:id="rId2"/>
-    <sheet name="Data - 123 - base" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary - 123 - rh1" sheetId="4" r:id="rId4"/>
-    <sheet name="Data - 123 - rh1" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary -  - " sheetId="2" r:id="rId2"/>
+    <sheet name="Data -  - " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Study Name</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>joe</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -215,6 +207,9 @@
     <t>COND</t>
   </si>
   <si>
+    <t>% Dif</t>
+  </si>
+  <si>
     <t>Date Scanned</t>
   </si>
   <si>
@@ -258,9 +253,6 @@
   </si>
   <si>
     <t>Flow velocity integral avg (meters</t>
-  </si>
-  <si>
-    <t>C:/Users/User/Documents/GitHub/FMD_Senior_Design/Resources/14.13.37 hrs __[0011703].avi</t>
   </si>
 </sst>
 </file>
@@ -359,7 +351,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data - 123 - base'!$H$2:$H$61</c:f>
+              <c:f>'Data -  - '!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -548,7 +540,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data - 123 - base'!$B$2:$B$61</c:f>
+              <c:f>'Data -  - '!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -815,529 +807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Baseline Test Diameter</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Data - 123 - rh1'!$H$2:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Data - 123 - rh1'!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>131.1173184357542</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.43969436047382</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.37809218763662</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.75447597118858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.86596444558292</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.77067467169414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.32861012297636</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.17263638789651</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.62047453353023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.80186061288828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.1168750314678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.23211193523181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.18010957114192</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.10757948972721</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.08392740990866</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.14567525699958</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.1028518878085</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.9924576483292</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.00425740433433</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.45339043718502</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.69881576208547</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.65253704067186</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.63571513688805</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.60788832767959</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.47640249349195</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.28760991527536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.92145627821908</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.30855878163534</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.59270873725703</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.68925123200624</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.5941353818298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.49000530654262</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.42649294350104</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.2617118179304</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.11673614185651</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.01119243882869</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.34851821951401</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.83363151347939</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>36.53560547555191</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.67062917156793</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42.34139365264331</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.17309016702146</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.1786387102793</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>34.35103130928262</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33.77425934140766</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.80071594653138</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33.15473112963728</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.50400903098043</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>32.46327461790699</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28.61209669111286</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.86391900329808</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>32.25205320169832</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.86163025262231</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.07232443926549</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29.76217726816773</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.44278691163136</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.84651132417257</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29.76194509308932</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>34.23176934232991</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>34.40217024278832</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Diameter (pixels)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1671,84 +1141,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2">
         <v>61</v>
@@ -1766,64 +1227,35 @@
         <v>42.67062917156793</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3">
-        <v>61</v>
-      </c>
-      <c r="K3">
-        <v>6.1</v>
-      </c>
-      <c r="M3">
-        <v>30.42030399417355</v>
-      </c>
-      <c r="N3">
-        <v>23.62047453353023</v>
-      </c>
-      <c r="O3">
-        <v>131.1173184357542</v>
-      </c>
-    </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1845,141 +1277,138 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
@@ -1987,17 +1416,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -2005,52 +1434,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -2075,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2084,36 +1513,39 @@
     <col min="1" max="29" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2123,8 +1555,11 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2134,8 +1569,11 @@
       <c r="H3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2145,8 +1583,11 @@
       <c r="H4" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2">
+        <v>-44.75668830316231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2156,8 +1597,11 @@
       <c r="H5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="J5">
+        <v>-46.29673941018715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2167,8 +1611,11 @@
       <c r="H6" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2">
+        <v>-46.75291726883764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2178,8 +1625,11 @@
       <c r="H7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="J7">
+        <v>-46.36301970103953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2189,8 +1639,11 @@
       <c r="H8" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2">
+        <v>0.4545238408427645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2200,8 +1653,11 @@
       <c r="H9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="J9">
+        <v>1.092722227366366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2211,8 +1667,11 @@
       <c r="H10" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2">
+        <v>3.352005204567973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2222,8 +1681,11 @@
       <c r="H11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="J11">
+        <v>2.609827022293292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2233,8 +1695,11 @@
       <c r="H12" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2">
+        <v>1.320881203523192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2244,8 +1709,11 @@
       <c r="H13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="J13">
+        <v>0.8493658806868056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2255,8 +1723,11 @@
       <c r="H14" s="2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2">
+        <v>1.062144172112581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2266,8 +1737,11 @@
       <c r="H15">
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
+      <c r="J15">
+        <v>1.358915810681068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2277,8 +1751,11 @@
       <c r="H16" s="2">
         <v>1400</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="2">
+        <v>1.455693124953879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2288,8 +1765,11 @@
       <c r="H17">
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+      <c r="J17">
+        <v>1.2030391998263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2299,8 +1779,11 @@
       <c r="H18" s="2">
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="2">
+        <v>1.378259759295875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2310,8 +1793,11 @@
       <c r="H19">
         <v>1700</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+      <c r="J19">
+        <v>1.829960332351507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2321,8 +1807,11 @@
       <c r="H20" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="2">
+        <v>1.781679221176024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2332,8 +1821,11 @@
       <c r="H21">
         <v>1900</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="J21">
+        <v>-0.0560402945683165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2343,8 +1835,11 @@
       <c r="H22" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="2">
+        <v>-1.060248126632605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2354,8 +1849,11 @@
       <c r="H23">
         <v>2100</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="J23">
+        <v>-0.8708892879702687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2365,8 +1863,11 @@
       <c r="H24" s="2">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="2">
+        <v>-0.8020590336483917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2376,8 +1877,11 @@
       <c r="H25">
         <v>2300</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="J25">
+        <v>-0.6881999616074961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2387,8 +1891,11 @@
       <c r="H26" s="2">
         <v>2400</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="2">
+        <v>-0.1501988219521504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2398,8 +1905,11 @@
       <c r="H27">
         <v>2500</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="J27">
+        <v>0.6222845627906715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2409,8 +1919,11 @@
       <c r="H28" s="2">
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="2">
+        <v>2.120476936458243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2420,8 +1933,11 @@
       <c r="H29">
         <v>2700</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="J29">
+        <v>0.5365679983729903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2431,8 +1947,11 @@
       <c r="H30" s="2">
         <v>2800</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="2">
+        <v>-0.6260895677594104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2442,8 +1961,11 @@
       <c r="H31">
         <v>2900</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="J31">
+        <v>-1.021112898760414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2453,8 +1975,11 @@
       <c r="H32" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="2">
+        <v>-0.6319269753461642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2464,8 +1989,11 @@
       <c r="H33">
         <v>3100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="J33">
+        <v>-0.2058575092091545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2475,8 +2003,11 @@
       <c r="H34" s="2">
         <v>3200</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="2">
+        <v>0.05401629324027432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2486,8 +2017,11 @@
       <c r="H35">
         <v>3300</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="J35">
+        <v>0.7282519164039339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2497,8 +2031,11 @@
       <c r="H36" s="2">
         <v>3400</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="2">
+        <v>1.321449498728691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2508,8 +2045,11 @@
       <c r="H37">
         <v>3500</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="J37">
+        <v>1.753303111425727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2519,8 +2059,11 @@
       <c r="H38" s="2">
         <v>3600</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="2">
+        <v>0.3730657986757049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2530,8 +2073,11 @@
       <c r="H39">
         <v>3700</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="J39">
+        <v>-1.611874302498192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2541,8 +2087,11 @@
       <c r="H40" s="2">
         <v>3800</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" s="2">
+        <v>-49.49289028196992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2552,8 +2101,11 @@
       <c r="H41">
         <v>3900</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="J41">
+        <v>-74.59559249062831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2563,8 +2115,11 @@
       <c r="H42" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" s="2">
+        <v>-73.24845813588331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2574,8 +2129,11 @@
       <c r="H43">
         <v>4100</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="J43">
+        <v>-72.55981005731304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2585,8 +2143,11 @@
       <c r="H44" s="2">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44" s="2">
+        <v>-72.58251305505107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2596,8 +2157,11 @@
       <c r="H45">
         <v>4300</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
+      <c r="J45">
+        <v>-40.55425899612867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2607,8 +2171,11 @@
       <c r="H46" s="2">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="2">
+        <v>-38.19427871418303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2618,8 +2185,11 @@
       <c r="H47">
         <v>4500</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1">
+      <c r="J47">
+        <v>-38.30253131641896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2629,8 +2199,11 @@
       <c r="H48" s="2">
         <v>4600</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="J48" s="2">
+        <v>-35.65935252962183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2640,8 +2213,11 @@
       <c r="H49">
         <v>4700</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
+      <c r="J49">
+        <v>-37.08849438463632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2651,8 +2227,11 @@
       <c r="H50" s="2">
         <v>4800</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="J50" s="2">
+        <v>-32.8301170181967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2662,8 +2241,11 @@
       <c r="H51">
         <v>4900</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="2" customFormat="1">
+      <c r="J51">
+        <v>-17.07223612987179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2673,8 +2255,11 @@
       <c r="H52" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="J52" s="2">
+        <v>-34.4694353316002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2684,8 +2269,11 @@
       <c r="H53">
         <v>5100</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1">
+      <c r="J53">
+        <v>-31.96586146289696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2695,8 +2283,11 @@
       <c r="H54" s="2">
         <v>5200</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" s="2">
+        <v>-34.46007044085317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2706,8 +2297,11 @@
       <c r="H55">
         <v>5300</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1">
+      <c r="J55">
+        <v>-18.95535193878692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2717,8 +2311,11 @@
       <c r="H56" s="2">
         <v>5400</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="J56" s="2">
+        <v>-21.77802565445311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2728,8 +2325,11 @@
       <c r="H57">
         <v>5500</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1">
+      <c r="J57">
+        <v>-20.471174791977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2739,8 +2339,11 @@
       <c r="H58" s="2">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J58" s="2">
+        <v>-22.12309566539905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2750,8 +2353,11 @@
       <c r="H59">
         <v>5700</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1">
+      <c r="J59">
+        <v>-21.77707566271022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="2" customFormat="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2761,8 +2367,11 @@
       <c r="H60" s="2">
         <v>5800</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="J60" s="2">
+        <v>-40.06627430534797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2772,962 +2381,16 @@
       <c r="H61">
         <v>5900</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="J61">
+        <v>-40.76350438500883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="B62">
         <v>29.95937605115229</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="2" customFormat="1"/>
-    <row r="36" spans="1:1" s="2" customFormat="1"/>
-    <row r="38" spans="1:1" s="2" customFormat="1"/>
-    <row r="40" spans="1:1" s="2" customFormat="1"/>
-    <row r="42" spans="1:1" s="2" customFormat="1"/>
-    <row r="44" spans="1:1" s="2" customFormat="1"/>
-    <row r="46" spans="1:1" s="2" customFormat="1"/>
-    <row r="48" spans="1:1" s="2" customFormat="1"/>
-    <row r="50" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="29" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131.1173184357542</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>24.43969436047382</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>35.37809218763662</v>
-      </c>
-      <c r="H4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>35.75447597118858</v>
-      </c>
-      <c r="H5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35.86596444558292</v>
-      </c>
-      <c r="H6" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35.77067467169414</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>24.32861012297636</v>
-      </c>
-      <c r="H8" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>24.17263638789651</v>
-      </c>
-      <c r="H9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>23.62047453353023</v>
-      </c>
-      <c r="H10" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>23.80186061288828</v>
-      </c>
-      <c r="H11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>24.1168750314678</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>24.23211193523181</v>
-      </c>
-      <c r="H13">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>24.18010957114192</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>24.10757948972721</v>
-      </c>
-      <c r="H15">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>24.08392740990866</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>24.14567525699958</v>
-      </c>
-      <c r="H17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>24.1028518878085</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>23.9924576483292</v>
-      </c>
-      <c r="H19">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>24.00425740433433</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>24.45339043718502</v>
-      </c>
-      <c r="H21">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>24.69881576208547</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>24.65253704067186</v>
-      </c>
-      <c r="H23">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>24.63571513688805</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24.60788832767959</v>
-      </c>
-      <c r="H25">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>24.47640249349195</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>24.28760991527536</v>
-      </c>
-      <c r="H27">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>23.92145627821908</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>24.30855878163534</v>
-      </c>
-      <c r="H29">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>24.59270873725703</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>24.68925123200624</v>
-      </c>
-      <c r="H31">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>24.5941353818298</v>
-      </c>
-      <c r="H32" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>24.49000530654262</v>
-      </c>
-      <c r="H33">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>24.42649294350104</v>
-      </c>
-      <c r="H34" s="2">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>24.2617118179304</v>
-      </c>
-      <c r="H35">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>24.11673614185651</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>24.01119243882869</v>
-      </c>
-      <c r="H37">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>24.34851821951401</v>
-      </c>
-      <c r="H38" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>24.83363151347939</v>
-      </c>
-      <c r="H39">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>36.53560547555191</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>42.67062917156793</v>
-      </c>
-      <c r="H41">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42.34139365264331</v>
-      </c>
-      <c r="H42" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>42.17309016702146</v>
-      </c>
-      <c r="H43">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>42.1786387102793</v>
-      </c>
-      <c r="H44" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>34.35103130928262</v>
-      </c>
-      <c r="H45">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>33.77425934140766</v>
-      </c>
-      <c r="H46" s="2">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>33.80071594653138</v>
-      </c>
-      <c r="H47">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>33.15473112963728</v>
-      </c>
-      <c r="H48" s="2">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>33.50400903098043</v>
-      </c>
-      <c r="H49">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>32.46327461790699</v>
-      </c>
-      <c r="H50" s="2">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>28.61209669111286</v>
-      </c>
-      <c r="H51">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="2" customFormat="1">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>32.86391900329808</v>
-      </c>
-      <c r="H52" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>32.25205320169832</v>
-      </c>
-      <c r="H53">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>32.86163025262231</v>
-      </c>
-      <c r="H54" s="2">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>29.07232443926549</v>
-      </c>
-      <c r="H55">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>29.76217726816773</v>
-      </c>
-      <c r="H56" s="2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>29.44278691163136</v>
-      </c>
-      <c r="H57">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>29.84651132417257</v>
-      </c>
-      <c r="H58" s="2">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>29.76194509308932</v>
-      </c>
-      <c r="H59">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>34.23176934232991</v>
-      </c>
-      <c r="H60" s="2">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>34.40217024278832</v>
-      </c>
-      <c r="H61">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62">
-        <v>29.95937605115229</v>
+      <c r="J62">
+        <v>-22.58490474252993</v>
       </c>
     </row>
   </sheetData>

--- a/Banalyzer/GUI/fmd_report_example.xlsx
+++ b/Banalyzer/GUI/fmd_report_example.xlsx
@@ -8,22 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary -  - " sheetId="2" r:id="rId2"/>
-    <sheet name="Data -  - " sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - study1 - base" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - study1 - base" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - study1 - rh1" sheetId="4" r:id="rId4"/>
+    <sheet name="Data - study1 - rh1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
   <si>
     <t>Study Name</t>
   </si>
   <si>
+    <t>study1</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>joe</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -253,6 +261,9 @@
   </si>
   <si>
     <t>Flow velocity integral avg (meters</t>
+  </si>
+  <si>
+    <t>C:/Users/User/Documents/GitHub/FMD_Senior_Design/Resources/14.13.37 hrs __[0011703].avi</t>
   </si>
 </sst>
 </file>
@@ -351,7 +362,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data -  - '!$H$2:$H$61</c:f>
+              <c:f>'Data - study1 - base'!$H$2:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -540,7 +551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data -  - '!$B$2:$B$61</c:f>
+              <c:f>'Data - study1 - base'!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -807,7 +818,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baseline Test Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data - study1 - rh1'!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data - study1 - rh1'!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>131.1173184357542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.43969436047382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.37809218763662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.75447597118858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.86596444558292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.77067467169414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.32861012297636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.17263638789651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.62047453353023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.80186061288828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1168750314678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.23211193523181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.18010957114192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.10757948972721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.08392740990866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.14567525699958</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.1028518878085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.9924576483292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.00425740433433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.45339043718502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.69881576208547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.65253704067186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.63571513688805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.60788832767959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.47640249349195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.28760991527536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.92145627821908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.30855878163534</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.59270873725703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.68925123200624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.5941353818298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.49000530654262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.42649294350104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.2617118179304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.11673614185651</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.01119243882869</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.34851821951401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.83363151347939</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.53560547555191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.67062917156793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.34139365264331</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.17309016702146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.1786387102793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.35103130928262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.77425934140766</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.80071594653138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.15473112963728</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.50400903098043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.46327461790699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.61209669111286</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.86391900329808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.25205320169832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.86163025262231</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.07232443926549</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.76217726816773</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.44278691163136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.84651132417257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.76194509308932</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.23176934232991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.40217024278832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Diameter (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1141,75 +1674,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2">
         <v>61</v>
@@ -1227,35 +1769,64 @@
         <v>42.67062917156793</v>
       </c>
     </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3">
+        <v>61</v>
+      </c>
+      <c r="K3">
+        <v>6.1</v>
+      </c>
+      <c r="M3">
+        <v>30.42030399417355</v>
+      </c>
+      <c r="N3">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="O3">
+        <v>131.1173184357542</v>
+      </c>
+    </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1277,138 +1848,141 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
@@ -1416,17 +1990,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>61</v>
@@ -1434,52 +2008,52 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1"/>
@@ -1515,34 +2089,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -2391,6 +2965,1144 @@
       </c>
       <c r="J62">
         <v>-22.58490474252993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1"/>
+    <row r="36" spans="1:1" s="2" customFormat="1"/>
+    <row r="38" spans="1:1" s="2" customFormat="1"/>
+    <row r="40" spans="1:1" s="2" customFormat="1"/>
+    <row r="42" spans="1:1" s="2" customFormat="1"/>
+    <row r="44" spans="1:1" s="2" customFormat="1"/>
+    <row r="46" spans="1:1" s="2" customFormat="1"/>
+    <row r="48" spans="1:1" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="29" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131.1173184357542</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24.43969436047382</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>81.3604376202607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35.37809218763662</v>
+      </c>
+      <c r="H4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>73.01798678488728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>35.75447597118858</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <v>72.73092799811351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.86596444558292</v>
+      </c>
+      <c r="H6" s="2">
+        <v>400</v>
+      </c>
+      <c r="J6" s="2">
+        <v>72.6458984415878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35.77067467169414</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>72.71857364195462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24.32861012297636</v>
+      </c>
+      <c r="H8" s="2">
+        <v>600</v>
+      </c>
+      <c r="J8" s="2">
+        <v>81.44515887510538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24.17263638789651</v>
+      </c>
+      <c r="H9">
+        <v>700</v>
+      </c>
+      <c r="J9">
+        <v>81.56411626146793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>23.62047453353023</v>
+      </c>
+      <c r="H10" s="2">
+        <v>800</v>
+      </c>
+      <c r="J10" s="2">
+        <v>81.98523672133825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23.80186061288828</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="J11">
+        <v>81.84689795608435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24.1168750314678</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>81.60664409615366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24.23211193523181</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="J13">
+        <v>81.51875570342354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.18010957114192</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="2">
+        <v>81.55841664578439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24.10757948972721</v>
+      </c>
+      <c r="H15">
+        <v>1300</v>
+      </c>
+      <c r="J15">
+        <v>81.61373358048074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24.08392740990866</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J16" s="2">
+        <v>81.63177244834407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>24.14567525699958</v>
+      </c>
+      <c r="H17">
+        <v>1500</v>
+      </c>
+      <c r="J17">
+        <v>81.58467886236504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>24.1028518878085</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="2">
+        <v>81.6173392078495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23.9924576483292</v>
+      </c>
+      <c r="H19">
+        <v>1700</v>
+      </c>
+      <c r="J19">
+        <v>81.70153421793384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.00425740433433</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="2">
+        <v>81.69253483009865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>24.45339043718502</v>
+      </c>
+      <c r="H21">
+        <v>1900</v>
+      </c>
+      <c r="J21">
+        <v>81.34999195459685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>24.69881576208547</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>81.16281200931701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>24.65253704067186</v>
+      </c>
+      <c r="H23">
+        <v>2100</v>
+      </c>
+      <c r="J23">
+        <v>81.19810766817101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>24.63571513688805</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2200</v>
+      </c>
+      <c r="J24" s="2">
+        <v>81.21093732636147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24.60788832767959</v>
+      </c>
+      <c r="H25">
+        <v>2300</v>
+      </c>
+      <c r="J25">
+        <v>81.23216015911953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24.47640249349195</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2400</v>
+      </c>
+      <c r="J26" s="2">
+        <v>81.3324412171493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>24.28760991527536</v>
+      </c>
+      <c r="H27">
+        <v>2500</v>
+      </c>
+      <c r="J27">
+        <v>81.47642873952155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>23.92145627821908</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2600</v>
+      </c>
+      <c r="J28" s="2">
+        <v>81.75568524157983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>24.30855878163534</v>
+      </c>
+      <c r="H29">
+        <v>2700</v>
+      </c>
+      <c r="J29">
+        <v>81.46045154702715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24.59270873725703</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2800</v>
+      </c>
+      <c r="J30" s="2">
+        <v>81.24373726472514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>24.68925123200624</v>
+      </c>
+      <c r="H31">
+        <v>2900</v>
+      </c>
+      <c r="J31">
+        <v>81.1701066445287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24.5941353818298</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J32" s="2">
+        <v>81.24264919749666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>24.49000530654262</v>
+      </c>
+      <c r="H33">
+        <v>3100</v>
+      </c>
+      <c r="J33">
+        <v>81.32206668141829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>24.42649294350104</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3200</v>
+      </c>
+      <c r="J34" s="2">
+        <v>81.37050602093444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24.2617118179304</v>
+      </c>
+      <c r="H35">
+        <v>3300</v>
+      </c>
+      <c r="J35">
+        <v>81.49618059050046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>24.11673614185651</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3400</v>
+      </c>
+      <c r="J36" s="2">
+        <v>81.60675002389299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>24.01119243882869</v>
+      </c>
+      <c r="H37">
+        <v>3500</v>
+      </c>
+      <c r="J37">
+        <v>81.68724564742081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>24.34851821951401</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3600</v>
+      </c>
+      <c r="J38" s="2">
+        <v>81.42997545252234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>24.83363151347939</v>
+      </c>
+      <c r="H39">
+        <v>3700</v>
+      </c>
+      <c r="J39">
+        <v>81.05999130416356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.53560547555191</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J40" s="2">
+        <v>72.13517946261699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>42.67062917156793</v>
+      </c>
+      <c r="H41">
+        <v>3900</v>
+      </c>
+      <c r="J41">
+        <v>67.45614562543392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42.34139365264331</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J42" s="2">
+        <v>67.7072455738255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42.17309016702146</v>
+      </c>
+      <c r="H43">
+        <v>4100</v>
+      </c>
+      <c r="J43">
+        <v>67.8356065620075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42.1786387102793</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4200</v>
+      </c>
+      <c r="J44" s="2">
+        <v>67.83137482258203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>34.35103130928262</v>
+      </c>
+      <c r="H45">
+        <v>4300</v>
+      </c>
+      <c r="J45">
+        <v>73.80130121703625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33.77425934140766</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4400</v>
+      </c>
+      <c r="J46" s="2">
+        <v>74.24119121383907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>33.80071594653138</v>
+      </c>
+      <c r="H47">
+        <v>4500</v>
+      </c>
+      <c r="J47">
+        <v>74.22101340251763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.15473112963728</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4600</v>
+      </c>
+      <c r="J48" s="2">
+        <v>74.7136903612907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>33.50400903098043</v>
+      </c>
+      <c r="H49">
+        <v>4700</v>
+      </c>
+      <c r="J49">
+        <v>74.44730457373031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>32.46327461790699</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4800</v>
+      </c>
+      <c r="J50" s="2">
+        <v>75.24104747931253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28.61209669111286</v>
+      </c>
+      <c r="H51">
+        <v>4900</v>
+      </c>
+      <c r="J51">
+        <v>78.17824751721686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32.86391900329808</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J52" s="2">
+        <v>74.93548571968319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>32.25205320169832</v>
+      </c>
+      <c r="H53">
+        <v>5100</v>
+      </c>
+      <c r="J53">
+        <v>75.40214093266299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="2" customFormat="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32.86163025262231</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5200</v>
+      </c>
+      <c r="J54" s="2">
+        <v>74.93723129433576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>29.07232443926549</v>
+      </c>
+      <c r="H55">
+        <v>5300</v>
+      </c>
+      <c r="J55">
+        <v>77.8272429713314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>29.76217726816773</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5400</v>
+      </c>
+      <c r="J56" s="2">
+        <v>77.30110894332329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>29.44278691163136</v>
+      </c>
+      <c r="H57">
+        <v>5500</v>
+      </c>
+      <c r="J57">
+        <v>77.54470022504468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>29.84651132417257</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5600</v>
+      </c>
+      <c r="J58" s="2">
+        <v>77.23678940337923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>29.76194509308932</v>
+      </c>
+      <c r="H59">
+        <v>5700</v>
+      </c>
+      <c r="J59">
+        <v>77.30128601762681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="2" customFormat="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>34.23176934232991</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5800</v>
+      </c>
+      <c r="J60" s="2">
+        <v>73.8922594278779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>34.40217024278832</v>
+      </c>
+      <c r="H61">
+        <v>5900</v>
+      </c>
+      <c r="J61">
+        <v>73.76229879224921</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62">
+        <v>29.95937605115229</v>
+      </c>
+      <c r="J62">
+        <v>77.15071021237213</v>
       </c>
     </row>
   </sheetData>
